--- a/tables/23-sediment_biogeochemistry/OMStoichiometry.xlsx
+++ b/tables/23-sediment_biogeochemistry/OMStoichiometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D5ED5-AEAB-479F-B3B5-B4E21EE668D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5F3F1-83EF-4EE7-8B69-3EA0EAA56C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" xr2:uid="{4AE333D1-87D7-4389-9651-14106B1B2BA6}"/>
+    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" xr2:uid="{4AE333D1-87D7-4389-9651-14106B1B2BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Luff (2)" sheetId="4" r:id="rId1"/>
@@ -2289,7 +2289,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -2556,7 +2556,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3117,7 +3117,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11004697" y="6973150"/>
+          <a:off x="11004697" y="6927167"/>
           <a:ext cx="7220593" cy="3432084"/>
           <a:chOff x="15789087" y="6555441"/>
           <a:chExt cx="7371428" cy="2926274"/>
@@ -3210,7 +3210,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11588124" y="14918675"/>
+          <a:off x="11588124" y="14872692"/>
           <a:ext cx="9878884" cy="596013"/>
           <a:chOff x="784412" y="15702643"/>
           <a:chExt cx="13404651" cy="806775"/>
@@ -3771,10 +3771,10 @@
   <dimension ref="A2:AJ173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G115" sqref="G115"/>
+      <selection pane="bottomRight" activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3924,7 +3924,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="4">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" ref="F5:F10" si="0">SUM(B5:E5)</f>
         <v>118</v>
       </c>
       <c r="H5">
@@ -3932,15 +3932,15 @@
         <v>118</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(G5:K5)</f>
+        <f t="shared" ref="L5:L10" si="1">SUM(G5:K5)</f>
         <v>118</v>
       </c>
       <c r="M5" s="8">
-        <f>L5-F5</f>
+        <f t="shared" ref="M5:M10" si="2">L5-F5</f>
         <v>0</v>
       </c>
       <c r="N5" s="8" t="b">
-        <f>IF(ABS(M5)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N5:N10" si="3">IF(ABS(M5)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O5" s="32"/>
@@ -3969,7 +3969,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="4">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J6">
@@ -3977,15 +3977,15 @@
         <v>16</v>
       </c>
       <c r="L6" s="4">
-        <f>SUM(G6:K6)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M6" s="8">
-        <f>L6-F6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6" s="8" t="b">
-        <f>IF(ABS(M6)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O6" s="32"/>
@@ -3999,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K7">
@@ -4007,15 +4007,15 @@
         <v>1</v>
       </c>
       <c r="L7" s="4">
-        <f>SUM(G7:K7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M7" s="8">
-        <f>L7-F7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="8" t="b">
-        <f>IF(ABS(M7)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O7" s="32"/>
@@ -4037,7 +4037,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="4">
-        <f>SUM(B8:E8)</f>
+        <f t="shared" si="0"/>
         <v>422</v>
       </c>
       <c r="H8">
@@ -4057,15 +4057,15 @@
         <v>4</v>
       </c>
       <c r="L8" s="4">
-        <f>SUM(G8:K8)</f>
+        <f t="shared" si="1"/>
         <v>422</v>
       </c>
       <c r="M8" s="8">
-        <f>L8-F8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N8" s="8" t="b">
-        <f>IF(ABS(M8)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O8" s="32"/>
@@ -4083,7 +4083,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="4">
-        <f>SUM(B9:E9)</f>
+        <f t="shared" si="0"/>
         <v>269</v>
       </c>
       <c r="I9">
@@ -4095,15 +4095,15 @@
         <v>1</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM(G9:K9)</f>
+        <f t="shared" si="1"/>
         <v>269</v>
       </c>
       <c r="M9" s="8">
-        <f>L9-F9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="8" t="b">
-        <f>IF(ABS(M9)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O9" s="32"/>
@@ -4117,7 +4117,7 @@
         <v>-18</v>
       </c>
       <c r="F10" s="4">
-        <f>SUM(B10:E10)</f>
+        <f t="shared" si="0"/>
         <v>-18</v>
       </c>
       <c r="J10">
@@ -4129,15 +4129,15 @@
         <v>-2</v>
       </c>
       <c r="L10" s="4">
-        <f>SUM(G10:K10)</f>
+        <f t="shared" si="1"/>
         <v>-18</v>
       </c>
       <c r="M10" s="8">
-        <f>L10-F10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N10" s="8" t="b">
-        <f>IF(ABS(M10)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O10" s="32"/>
@@ -4382,7 +4382,7 @@
         <v>-14</v>
       </c>
       <c r="F15" s="11">
-        <f>SUM(B15:E15)</f>
+        <f t="shared" ref="F15:F23" si="4">SUM(B15:E15)</f>
         <v>86</v>
       </c>
       <c r="G15" s="8"/>
@@ -4392,11 +4392,11 @@
       </c>
       <c r="I15" s="13"/>
       <c r="L15" s="11">
-        <f>SUM(G15:K15)</f>
+        <f t="shared" ref="L15:L23" si="5">SUM(G15:K15)</f>
         <v>86</v>
       </c>
       <c r="M15" s="8">
-        <f>L15-F15</f>
+        <f t="shared" ref="M15:M23" si="6">L15-F15</f>
         <v>0</v>
       </c>
       <c r="N15" s="8" t="b">
@@ -4427,11 +4427,11 @@
       </c>
       <c r="AD15" s="13"/>
       <c r="AG15" s="11">
-        <f ca="1">SUM(Z15:XF15)</f>
+        <f t="shared" ref="AG15:AG23" ca="1" si="7">SUM(Z15:XF15)</f>
         <v>0</v>
       </c>
       <c r="AH15" s="8">
-        <f>XG15-Y15</f>
+        <f t="shared" ref="AH15:AH23" si="8">XG15-Y15</f>
         <v>-86</v>
       </c>
       <c r="AI15" s="8" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="F16" s="11">
-        <f>SUM(B16:E16)</f>
+        <f t="shared" si="4"/>
         <v>416</v>
       </c>
       <c r="G16" s="8">
@@ -4468,11 +4468,11 @@
         <v>16</v>
       </c>
       <c r="L16" s="11">
-        <f>SUM(G16:K16)</f>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="M16" s="8">
-        <f>L16-F16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N16" s="8" t="b">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="T16" s="8"/>
       <c r="Y16" s="11">
-        <f t="shared" ref="Y16:Y17" si="0">SUM(R16:X16)</f>
+        <f t="shared" ref="Y16:Y17" si="9">SUM(R16:X16)</f>
         <v>416</v>
       </c>
       <c r="Z16" s="8">
@@ -4506,12 +4506,12 @@
         <f>XE14</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="11" t="e">
-        <f ca="1">SUM(Z16:XF16)</f>
-        <v>#REF!</v>
+      <c r="AG16" s="11">
+        <f>SUM(Z16:AF16)</f>
+        <v>400</v>
       </c>
       <c r="AH16" s="8">
-        <f>XG16-Y16</f>
+        <f t="shared" si="8"/>
         <v>-416</v>
       </c>
       <c r="AI16" s="8" t="b">
@@ -4531,7 +4531,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="F17" s="11">
-        <f>SUM(B17:E17)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H17" s="8"/>
@@ -4541,11 +4541,11 @@
         <v>1</v>
       </c>
       <c r="L17" s="11">
-        <f>SUM(G17:K17)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M17" s="8">
-        <f>L17-F17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N17" s="8" t="b">
@@ -4563,7 +4563,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="Y17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC17" s="8"/>
@@ -4573,11 +4573,11 @@
         <v>0</v>
       </c>
       <c r="AG17" s="11">
-        <f ca="1">SUM(Z17:XF17)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="AH17" s="8">
-        <f>XG17-Y17</f>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="AI17" s="8" t="b">
@@ -4603,7 +4603,7 @@
         <v>-42</v>
       </c>
       <c r="F18" s="11">
-        <f>SUM(B18:E18)</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="H18" s="8">
@@ -4619,11 +4619,11 @@
         <v>4</v>
       </c>
       <c r="L18" s="11">
-        <f>SUM(G18:K18)</f>
+        <f t="shared" si="5"/>
         <v>262</v>
       </c>
       <c r="M18" s="8">
-        <f>L18-F18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N18" s="8" t="b">
@@ -4663,11 +4663,11 @@
         <v>0</v>
       </c>
       <c r="AG18" s="11">
-        <f ca="1">SUM(Z18:XF18)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="AH18" s="8">
-        <f>XG18-Y18</f>
+        <f t="shared" si="8"/>
         <v>-262</v>
       </c>
       <c r="AI18" s="8" t="b">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D19" s="13"/>
       <c r="F19" s="12">
-        <f>SUM(B19:E19)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19" s="13"/>
@@ -4695,11 +4695,11 @@
         <v>172</v>
       </c>
       <c r="L19" s="11">
-        <f>SUM(G19:K19)</f>
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="M19" s="8">
-        <f>L19-F19</f>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="N19" s="8"/>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="T19" s="13"/>
       <c r="Y19" s="12">
-        <f t="shared" ref="Y19:Y23" si="1">SUM(R19:X19)</f>
+        <f t="shared" ref="Y19:Y23" si="10">SUM(R19:X19)</f>
         <v>200</v>
       </c>
       <c r="AC19" s="13"/>
@@ -4722,11 +4722,11 @@
         <v>0</v>
       </c>
       <c r="AG19" s="11">
-        <f ca="1">SUM(Z19:XF19)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="AH19" s="8">
-        <f>XG19-Y19</f>
+        <f t="shared" si="8"/>
         <v>-200</v>
       </c>
       <c r="AI19" s="8"/>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D20" s="13"/>
       <c r="F20" s="12">
-        <f>SUM(B20:E20)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="H20" s="13"/>
@@ -4752,11 +4752,11 @@
         <v>64</v>
       </c>
       <c r="L20" s="11">
-        <f>SUM(G20:K20)</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="M20" s="8">
-        <f>L20-F20</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N20" s="8"/>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="T20" s="13"/>
       <c r="Y20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="AC20" s="13"/>
@@ -4779,12 +4779,12 @@
         <f>4*y</f>
         <v>64</v>
       </c>
-      <c r="AG20" s="11" t="e">
-        <f ca="1">SUM(Z20:XF20)</f>
-        <v>#REF!</v>
+      <c r="AG20" s="11">
+        <f>SUM(Z20:AF20)</f>
+        <v>64</v>
       </c>
       <c r="AH20" s="8">
-        <f>XG20-Y20</f>
+        <f t="shared" si="8"/>
         <v>-48</v>
       </c>
       <c r="AI20" s="8"/>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="D21" s="13"/>
       <c r="F21" s="12">
-        <f>SUM(B21:E21)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H21" s="13"/>
@@ -4810,11 +4810,11 @@
         <v>1</v>
       </c>
       <c r="L21" s="11">
-        <f>SUM(G21:K21)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M21" s="8">
-        <f>L21-F21</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="N21" s="8"/>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="T21" s="13"/>
       <c r="Y21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AC21" s="13"/>
@@ -4838,11 +4838,11 @@
         <v>0</v>
       </c>
       <c r="AG21" s="11">
-        <f ca="1">SUM(Z21:XF21)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="AH21" s="8">
-        <f>XG21-Y21</f>
+        <f t="shared" si="8"/>
         <v>-3</v>
       </c>
       <c r="AI21" s="8"/>
@@ -4861,7 +4861,7 @@
         <v>-14</v>
       </c>
       <c r="F22" s="12">
-        <f>SUM(B22:E22)</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="H22" s="8">
@@ -4869,23 +4869,23 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" ref="I22:K22" si="2">I19+I20+I21</f>
+        <f t="shared" ref="I22:K22" si="11">I19+I20+I21</f>
         <v>172</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L22" s="11">
-        <f>SUM(G22:K22)</f>
+        <f t="shared" si="5"/>
         <v>237</v>
       </c>
       <c r="M22" s="8">
-        <f>L22-F22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N22" s="8" t="b">
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="AC22" s="8">
@@ -4929,11 +4929,11 @@
         <v>0</v>
       </c>
       <c r="AG22" s="11">
-        <f ca="1">SUM(Z22:XF22)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="AH22" s="8">
-        <f>XG22-Y22</f>
+        <f t="shared" si="8"/>
         <v>-237</v>
       </c>
       <c r="AI22" s="8" t="b">
@@ -4957,7 +4957,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="12">
-        <f>SUM(B23:E23)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H23" s="8"/>
@@ -4971,11 +4971,11 @@
         <v>-2</v>
       </c>
       <c r="L23" s="11">
-        <f>SUM(G23:K23)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="M23" s="8">
-        <f>L23-F23</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N23" s="8" t="b">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="AC23" s="8"/>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="AG23" s="11">
-        <f ca="1">SUM(Z23:XF23)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="AH23" s="8">
-        <f>XG23-Y23</f>
+        <f t="shared" si="8"/>
         <v>-14</v>
       </c>
       <c r="AI23" s="8" t="b">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="AJ23" s="32"/>
     </row>
-    <row r="24" spans="1:36" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
       <c r="L24" s="4"/>
@@ -5162,7 +5162,7 @@
         <v>-94</v>
       </c>
       <c r="F28" s="4">
-        <f>SUM(B28:E28)</f>
+        <f t="shared" ref="F28:F33" si="12">SUM(B28:E28)</f>
         <v>6</v>
       </c>
       <c r="H28" s="8">
@@ -5171,11 +5171,11 @@
       </c>
       <c r="I28" s="13"/>
       <c r="L28" s="4">
-        <f>SUM(G28:K28)</f>
+        <f t="shared" ref="L28:L33" si="13">SUM(G28:K28)</f>
         <v>6</v>
       </c>
       <c r="M28" s="8">
-        <f>L28-F28</f>
+        <f t="shared" ref="M28:M33" si="14">L28-F28</f>
         <v>0</v>
       </c>
       <c r="N28" s="8" t="b">
@@ -5197,7 +5197,7 @@
         <v>80</v>
       </c>
       <c r="F29" s="4">
-        <f>SUM(B29:E29)</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="G29">
@@ -5211,11 +5211,11 @@
         <v>16</v>
       </c>
       <c r="L29" s="4">
-        <f>SUM(G29:K29)</f>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="M29" s="8">
-        <f>L29-F29</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N29" s="8" t="b">
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <f>SUM(B30:E30)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H30" s="8"/>
@@ -5243,11 +5243,11 @@
         <v>1</v>
       </c>
       <c r="L30" s="4">
-        <f>SUM(G30:K30)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M30" s="8">
-        <f>L30-F30</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N30" s="8" t="b">
@@ -5273,7 +5273,7 @@
         <v>-282</v>
       </c>
       <c r="F31" s="4">
-        <f>SUM(B31:E31)</f>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="H31" s="8">
@@ -5289,11 +5289,11 @@
         <v>4</v>
       </c>
       <c r="L31" s="4">
-        <f>SUM(G31:K31)</f>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="M31" s="8">
-        <f>L31-F31</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="8" t="b">
@@ -5315,7 +5315,7 @@
         <v>-94</v>
       </c>
       <c r="F32" s="10">
-        <f>SUM(B32:E32)</f>
+        <f t="shared" si="12"/>
         <v>157</v>
       </c>
       <c r="H32" s="13"/>
@@ -5332,11 +5332,11 @@
         <v>1</v>
       </c>
       <c r="L32" s="4">
-        <f>SUM(G32:K32)</f>
+        <f t="shared" si="13"/>
         <v>157</v>
       </c>
       <c r="M32" s="8">
-        <f>L32-F32</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N32" s="8" t="b">
@@ -5358,7 +5358,7 @@
         <v>94</v>
       </c>
       <c r="F33" s="10">
-        <f>SUM(B33:E33)</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J33">
@@ -5370,11 +5370,11 @@
         <v>-1</v>
       </c>
       <c r="L33" s="4">
-        <f>SUM(G33:K33)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="M33" s="8">
-        <f>L33-F33</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N33" s="8" t="b">
@@ -5507,7 +5507,7 @@
         <v>-14</v>
       </c>
       <c r="F38" s="11">
-        <f>SUM(B38:E38)</f>
+        <f t="shared" ref="F38:F46" si="15">SUM(B38:E38)</f>
         <v>86</v>
       </c>
       <c r="H38" s="8">
@@ -5516,11 +5516,11 @@
       </c>
       <c r="I38" s="13"/>
       <c r="L38" s="4">
-        <f>SUM(G38:K38)</f>
+        <f t="shared" ref="L38:L46" si="16">SUM(G38:K38)</f>
         <v>86</v>
       </c>
       <c r="M38" s="8">
-        <f>L38-F38</f>
+        <f t="shared" ref="M38:M46" si="17">L38-F38</f>
         <v>0</v>
       </c>
       <c r="N38" s="8" t="b">
@@ -5542,7 +5542,7 @@
         <v>200</v>
       </c>
       <c r="F39" s="11">
-        <f>SUM(B39:E39)</f>
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="G39">
@@ -5556,11 +5556,11 @@
         <v>16</v>
       </c>
       <c r="L39" s="4">
-        <f>SUM(G39:K39)</f>
+        <f t="shared" si="16"/>
         <v>216</v>
       </c>
       <c r="M39" s="8">
-        <f>L39-F39</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N39" s="8" t="b">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="C40" s="8"/>
       <c r="F40" s="11">
-        <f>SUM(B40:E40)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H40" s="8"/>
@@ -5589,11 +5589,11 @@
         <v>1</v>
       </c>
       <c r="L40" s="4">
-        <f>SUM(G40:K40)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M40" s="8">
-        <f>L40-F40</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N40" s="8" t="b">
@@ -5619,7 +5619,7 @@
         <v>-42</v>
       </c>
       <c r="F41" s="11">
-        <f>SUM(B41:E41)</f>
+        <f t="shared" si="15"/>
         <v>662</v>
       </c>
       <c r="G41">
@@ -5639,11 +5639,11 @@
         <v>4</v>
       </c>
       <c r="L41" s="4">
-        <f>SUM(G41:K41)</f>
+        <f t="shared" si="16"/>
         <v>662</v>
       </c>
       <c r="M41" s="8">
-        <f>L41-F41</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N41" s="8" t="b">
@@ -5663,7 +5663,7 @@
       <c r="C42" s="22"/>
       <c r="D42" s="23"/>
       <c r="F42" s="26">
-        <f>SUM(B42:E42)</f>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="H42" s="13"/>
@@ -5680,11 +5680,11 @@
         <v>1</v>
       </c>
       <c r="L42" s="25">
-        <f>SUM(G42:K42)</f>
+        <f t="shared" si="16"/>
         <v>237</v>
       </c>
       <c r="M42" s="8">
-        <f>L42-F42</f>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="N42" s="8"/>
@@ -5701,18 +5701,18 @@
       <c r="C43" s="22"/>
       <c r="D43" s="23"/>
       <c r="F43" s="26">
-        <f>SUM(B43:E43)</f>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="25">
-        <f>SUM(G43:K43)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f>L43-F43</f>
+        <f t="shared" si="17"/>
         <v>-48</v>
       </c>
       <c r="N43" s="8"/>
@@ -5729,18 +5729,18 @@
       <c r="C44" s="22"/>
       <c r="D44" s="23"/>
       <c r="F44" s="26">
-        <f>SUM(B44:E44)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="25">
-        <f>SUM(G44:K44)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
-        <f>L44-F44</f>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="N44" s="8"/>
@@ -5759,7 +5759,7 @@
         <v>-14</v>
       </c>
       <c r="F45" s="10">
-        <f>SUM(B45:E45)</f>
+        <f t="shared" si="15"/>
         <v>237</v>
       </c>
       <c r="I45">
@@ -5775,11 +5775,11 @@
         <v>1</v>
       </c>
       <c r="L45" s="4">
-        <f>SUM(G45:K45)</f>
+        <f t="shared" si="16"/>
         <v>237</v>
       </c>
       <c r="M45" s="8">
-        <f>L45-F45</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N45" s="8" t="b">
@@ -5804,7 +5804,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="10">
-        <f>SUM(B46:E46)</f>
+        <f t="shared" si="15"/>
         <v>-186</v>
       </c>
       <c r="G46">
@@ -5820,11 +5820,11 @@
         <v>-2</v>
       </c>
       <c r="L46" s="4">
-        <f>SUM(G46:K46)</f>
+        <f t="shared" si="16"/>
         <v>-186</v>
       </c>
       <c r="M46" s="8">
-        <f>L46-F46</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N46" s="8" t="b">
@@ -5957,7 +5957,7 @@
         <v>-147.33333333333331</v>
       </c>
       <c r="F51" s="11">
-        <f>SUM(B51:E51)</f>
+        <f t="shared" ref="F51:F59" si="18">SUM(B51:E51)</f>
         <v>-47.333333333333314</v>
       </c>
       <c r="G51" s="8"/>
@@ -5967,11 +5967,11 @@
       </c>
       <c r="I51" s="13"/>
       <c r="L51" s="11">
-        <f>SUM(G51:K51)</f>
+        <f t="shared" ref="L51:L59" si="19">SUM(G51:K51)</f>
         <v>-47.333333333333314</v>
       </c>
       <c r="M51" s="8">
-        <f>L51-F51</f>
+        <f t="shared" ref="M51:M59" si="20">L51-F51</f>
         <v>0</v>
       </c>
       <c r="N51" s="8" t="b">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="D52" s="8"/>
       <c r="F52" s="11">
-        <f>SUM(B52:E52)</f>
+        <f t="shared" si="18"/>
         <v>82.666666666666657</v>
       </c>
       <c r="G52" s="8">
@@ -6008,11 +6008,11 @@
         <v>16</v>
       </c>
       <c r="L52" s="11">
-        <f>SUM(G52:K52)</f>
+        <f t="shared" si="19"/>
         <v>82.666666666666657</v>
       </c>
       <c r="M52" s="8">
-        <f>L52-F52</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N52" s="8" t="b">
@@ -6032,7 +6032,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="11">
-        <f>SUM(B53:E53)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G53" s="8"/>
@@ -6043,11 +6043,11 @@
         <v>1</v>
       </c>
       <c r="L53" s="11">
-        <f>SUM(G53:K53)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M53" s="8">
-        <f>L53-F53</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N53" s="8" t="b">
@@ -6073,7 +6073,7 @@
         <v>-441.99999999999994</v>
       </c>
       <c r="F54" s="11">
-        <f>SUM(B54:E54)</f>
+        <f t="shared" si="18"/>
         <v>-204.66666666666663</v>
       </c>
       <c r="G54" s="8"/>
@@ -6090,11 +6090,11 @@
         <v>4</v>
       </c>
       <c r="L54" s="11">
-        <f>SUM(G54:K54)</f>
+        <f t="shared" si="19"/>
         <v>-204.66666666666663</v>
       </c>
       <c r="M54" s="8">
-        <f>L54-F54</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N54" s="8" t="b">
@@ -6114,7 +6114,7 @@
       <c r="C55" s="22"/>
       <c r="D55" s="35"/>
       <c r="F55" s="28">
-        <f>SUM(B55:E55)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="G55" s="8"/>
@@ -6132,11 +6132,11 @@
         <v>1</v>
       </c>
       <c r="L55" s="29">
-        <f>SUM(G55:K55)</f>
+        <f t="shared" si="19"/>
         <v>-163</v>
       </c>
       <c r="M55" s="8">
-        <f>L55-F55</f>
+        <f t="shared" si="20"/>
         <v>-363</v>
       </c>
       <c r="N55" s="8"/>
@@ -6153,7 +6153,7 @@
       <c r="C56" s="22"/>
       <c r="D56" s="35"/>
       <c r="F56" s="28">
-        <f>SUM(B56:E56)</f>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="G56" s="8"/>
@@ -6161,11 +6161,11 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="29">
-        <f>SUM(G56:K56)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M56" s="8">
-        <f>L56-F56</f>
+        <f t="shared" si="20"/>
         <v>-48</v>
       </c>
       <c r="N56" s="8"/>
@@ -6182,7 +6182,7 @@
       <c r="C57" s="22"/>
       <c r="D57" s="35"/>
       <c r="F57" s="28">
-        <f>SUM(B57:E57)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="G57" s="8"/>
@@ -6190,11 +6190,11 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="29">
-        <f>SUM(G57:K57)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M57" s="8">
-        <f>L57-F57</f>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
       <c r="N57" s="8"/>
@@ -6213,7 +6213,7 @@
         <v>-147.33333333333331</v>
       </c>
       <c r="F58" s="12">
-        <f>SUM(B58:E58)</f>
+        <f t="shared" si="18"/>
         <v>103.66666666666669</v>
       </c>
       <c r="G58" s="8">
@@ -6233,11 +6233,11 @@
         <v>1</v>
       </c>
       <c r="L58" s="11">
-        <f>SUM(G58:K58)</f>
+        <f t="shared" si="19"/>
         <v>103.66666666666663</v>
       </c>
       <c r="M58" s="8">
-        <f>L58-F58</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N58" s="8" t="b">
@@ -6262,7 +6262,7 @@
         <v>147.33333333333331</v>
       </c>
       <c r="F59" s="12">
-        <f>SUM(B59:E59)</f>
+        <f t="shared" si="18"/>
         <v>80.666666666666657</v>
       </c>
       <c r="G59" s="8">
@@ -6278,11 +6278,11 @@
         <v>-2</v>
       </c>
       <c r="L59" s="11">
-        <f>SUM(G59:K59)</f>
+        <f t="shared" si="19"/>
         <v>80.666666666666657</v>
       </c>
       <c r="M59" s="8">
-        <f>L59-F59</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N59" s="8" t="b">
@@ -6416,7 +6416,7 @@
         <v>-214</v>
       </c>
       <c r="F64" s="11">
-        <f>SUM(B64:E64)</f>
+        <f t="shared" ref="F64:F72" si="21">SUM(B64:E64)</f>
         <v>-114</v>
       </c>
       <c r="H64" s="8">
@@ -6425,11 +6425,11 @@
       </c>
       <c r="I64" s="13"/>
       <c r="L64" s="4">
-        <f>SUM(G64:K64)</f>
+        <f t="shared" ref="L64:L72" si="22">SUM(G64:K64)</f>
         <v>-114</v>
       </c>
       <c r="M64" s="8">
-        <f>L64-F64</f>
+        <f t="shared" ref="M64:M72" si="23">L64-F64</f>
         <v>0</v>
       </c>
       <c r="N64" s="8" t="b">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="D65" s="8"/>
       <c r="F65" s="11">
-        <f>SUM(B65:E65)</f>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="G65">
@@ -6466,11 +6466,11 @@
         <v>16</v>
       </c>
       <c r="L65" s="4">
-        <f>SUM(G65:K65)</f>
+        <f t="shared" si="22"/>
         <v>216</v>
       </c>
       <c r="M65" s="8">
-        <f>L65-F65</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N65" s="8" t="b">
@@ -6490,7 +6490,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="11">
-        <f>SUM(B66:E66)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="H66" s="8"/>
@@ -6500,11 +6500,11 @@
         <v>1</v>
       </c>
       <c r="L66" s="4">
-        <f>SUM(G66:K66)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M66" s="8">
-        <f>L66-F66</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N66" s="8" t="b">
@@ -6530,7 +6530,7 @@
         <v>-642</v>
       </c>
       <c r="F67" s="11">
-        <f>SUM(B67:E67)</f>
+        <f t="shared" si="21"/>
         <v>-138</v>
       </c>
       <c r="G67">
@@ -6550,11 +6550,11 @@
         <v>4</v>
       </c>
       <c r="L67" s="4">
-        <f>SUM(G67:K67)</f>
+        <f t="shared" si="22"/>
         <v>-138</v>
       </c>
       <c r="M67" s="8">
-        <f>L67-F67</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N67" s="8" t="b">
@@ -6574,7 +6574,7 @@
       <c r="C68" s="22"/>
       <c r="D68" s="35"/>
       <c r="F68" s="26">
-        <f>SUM(B68:E68)</f>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="H68" s="13"/>
@@ -6591,11 +6591,11 @@
         <v>1</v>
       </c>
       <c r="L68" s="25">
-        <f>SUM(G68:K68)</f>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="M68" s="8">
-        <f>L68-F68</f>
+        <f t="shared" si="23"/>
         <v>-163</v>
       </c>
       <c r="N68" s="8"/>
@@ -6612,18 +6612,18 @@
       <c r="C69" s="22"/>
       <c r="D69" s="35"/>
       <c r="F69" s="26">
-        <f>SUM(B69:E69)</f>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="25">
-        <f>SUM(G69:K69)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M69" s="8">
-        <f>L69-F69</f>
+        <f t="shared" si="23"/>
         <v>-48</v>
       </c>
       <c r="N69" s="8"/>
@@ -6640,18 +6640,18 @@
       <c r="C70" s="22"/>
       <c r="D70" s="35"/>
       <c r="F70" s="26">
-        <f>SUM(B70:E70)</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
       <c r="L70" s="25">
-        <f>SUM(G70:K70)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M70" s="8">
-        <f>L70-F70</f>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="N70" s="8"/>
@@ -6670,7 +6670,7 @@
         <v>-214</v>
       </c>
       <c r="F71" s="10">
-        <f>SUM(B71:E71)</f>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="I71">
@@ -6686,11 +6686,11 @@
         <v>1</v>
       </c>
       <c r="L71" s="4">
-        <f>SUM(G71:K71)</f>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="M71" s="8">
-        <f>L71-F71</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N71" s="8" t="b">
@@ -6715,7 +6715,7 @@
         <v>214</v>
       </c>
       <c r="F72" s="10">
-        <f>SUM(B72:E72)</f>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="G72">
@@ -6731,11 +6731,11 @@
         <v>-2</v>
       </c>
       <c r="L72" s="4">
-        <f>SUM(G72:K72)</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="M72" s="8">
-        <f>L72-F72</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N72" s="8" t="b">
@@ -6870,7 +6870,7 @@
         <v>314</v>
       </c>
       <c r="F77" s="11">
-        <f>SUM(B77:E77)</f>
+        <f t="shared" ref="F77:F85" si="24">SUM(B77:E77)</f>
         <v>414</v>
       </c>
       <c r="H77" s="8">
@@ -6879,11 +6879,11 @@
       </c>
       <c r="I77" s="13"/>
       <c r="L77" s="4">
-        <f>SUM(G77:K77)</f>
+        <f t="shared" ref="L77:L85" si="25">SUM(G77:K77)</f>
         <v>414</v>
       </c>
       <c r="M77" s="8">
-        <f>L77-F77</f>
+        <f t="shared" ref="M77:M85" si="26">L77-F77</f>
         <v>0</v>
       </c>
       <c r="N77" s="8" t="b">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C78" s="8"/>
       <c r="F78" s="11">
-        <f>SUM(B78:E78)</f>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="H78" s="8"/>
@@ -6912,11 +6912,11 @@
         <v>16</v>
       </c>
       <c r="L78" s="4">
-        <f>SUM(G78:K78)</f>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="M78" s="8">
-        <f>L78-F78</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N78" s="8" t="b">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="C79" s="8"/>
       <c r="F79" s="11">
-        <f>SUM(B79:E79)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="H79" s="8"/>
@@ -6945,11 +6945,11 @@
         <v>1</v>
       </c>
       <c r="L79" s="4">
-        <f>SUM(G79:K79)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="M79" s="8">
-        <f>L79-F79</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N79" s="8" t="b">
@@ -6979,7 +6979,7 @@
         <v>628</v>
       </c>
       <c r="F80" s="11">
-        <f>SUM(B80:E80)</f>
+        <f t="shared" si="24"/>
         <v>1246</v>
       </c>
       <c r="H80" s="8">
@@ -6992,11 +6992,11 @@
         <v>4</v>
       </c>
       <c r="L80" s="4">
-        <f>SUM(G80:K80)</f>
+        <f t="shared" si="25"/>
         <v>1246</v>
       </c>
       <c r="M80" s="8">
-        <f>L80-F80</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N80" s="8" t="b">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C81" s="22"/>
       <c r="F81" s="26">
-        <f>SUM(B81:E81)</f>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="H81" s="13"/>
@@ -7029,11 +7029,11 @@
         <v>1</v>
       </c>
       <c r="L81" s="25">
-        <f>SUM(G81:K81)</f>
+        <f t="shared" si="25"/>
         <v>65</v>
       </c>
       <c r="M81" s="8">
-        <f>L81-F81</f>
+        <f t="shared" si="26"/>
         <v>-135</v>
       </c>
       <c r="N81" s="8"/>
@@ -7049,18 +7049,18 @@
       </c>
       <c r="C82" s="22"/>
       <c r="F82" s="26">
-        <f>SUM(B82:E82)</f>
+        <f t="shared" si="24"/>
         <v>48</v>
       </c>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="25">
-        <f>SUM(G82:K82)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M82" s="8">
-        <f>L82-F82</f>
+        <f t="shared" si="26"/>
         <v>-48</v>
       </c>
       <c r="N82" s="8"/>
@@ -7076,18 +7076,18 @@
       </c>
       <c r="C83" s="22"/>
       <c r="F83" s="26">
-        <f>SUM(B83:E83)</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="25">
-        <f>SUM(G83:K83)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M83" s="8">
-        <f>L83-F83</f>
+        <f t="shared" si="26"/>
         <v>-3</v>
       </c>
       <c r="N83" s="8"/>
@@ -7106,7 +7106,7 @@
         <v>228</v>
       </c>
       <c r="F84" s="10">
-        <f>SUM(B84:E84)</f>
+        <f t="shared" si="24"/>
         <v>479</v>
       </c>
       <c r="H84">
@@ -7122,11 +7122,11 @@
         <v>1</v>
       </c>
       <c r="L84" s="4">
-        <f>SUM(G84:K84)</f>
+        <f t="shared" si="25"/>
         <v>479</v>
       </c>
       <c r="M84" s="8">
-        <f>L84-F84</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N84" s="8" t="b">
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="10">
-        <f>SUM(B85:E85)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G85">
@@ -7167,11 +7167,11 @@
         <v>-2</v>
       </c>
       <c r="L85" s="4">
-        <f>SUM(G85:K85)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M85" s="8">
-        <f>L85-F85</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N85" s="8" t="b">
@@ -7309,7 +7309,7 @@
         <v>714</v>
       </c>
       <c r="F91" s="11">
-        <f>SUM(B91:E91)</f>
+        <f t="shared" ref="F91:F99" si="27">SUM(B91:E91)</f>
         <v>814</v>
       </c>
       <c r="H91" s="8">
@@ -7318,11 +7318,11 @@
       </c>
       <c r="I91" s="13"/>
       <c r="L91" s="4">
-        <f>SUM(G91:K91)</f>
+        <f t="shared" ref="L91:L99" si="28">SUM(G91:K91)</f>
         <v>814</v>
       </c>
       <c r="M91" s="8">
-        <f>L91-F91</f>
+        <f t="shared" ref="M91:M99" si="29">L91-F91</f>
         <v>0</v>
       </c>
       <c r="N91" s="8" t="b">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="C92" s="8"/>
       <c r="F92" s="11">
-        <f>SUM(B92:E92)</f>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="H92" s="8"/>
@@ -7351,11 +7351,11 @@
         <v>16</v>
       </c>
       <c r="L92" s="4">
-        <f>SUM(G92:K92)</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="M92" s="8">
-        <f>L92-F92</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N92" s="8" t="b">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="C93" s="8"/>
       <c r="F93" s="11">
-        <f>SUM(B93:E93)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H93" s="8"/>
@@ -7384,11 +7384,11 @@
         <v>1</v>
       </c>
       <c r="L93" s="4">
-        <f>SUM(G93:K93)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="M93" s="8">
-        <f>L93-F93</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N93" s="8" t="b">
@@ -7418,7 +7418,7 @@
         <v>1428</v>
       </c>
       <c r="F94" s="11">
-        <f>SUM(B94:E94)</f>
+        <f t="shared" si="27"/>
         <v>2446</v>
       </c>
       <c r="H94" s="8">
@@ -7431,11 +7431,11 @@
         <v>4</v>
       </c>
       <c r="L94" s="4">
-        <f>SUM(G94:K94)</f>
+        <f t="shared" si="28"/>
         <v>2446</v>
       </c>
       <c r="M94" s="8">
-        <f>L94-F94</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N94" s="8" t="b">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="C95" s="22"/>
       <c r="F95" s="26">
-        <f>SUM(B95:E95)</f>
+        <f t="shared" si="27"/>
         <v>200</v>
       </c>
       <c r="H95" s="13"/>
@@ -7468,11 +7468,11 @@
         <v>1</v>
       </c>
       <c r="L95" s="25">
-        <f>SUM(G95:K95)</f>
+        <f t="shared" si="28"/>
         <v>65</v>
       </c>
       <c r="M95" s="8">
-        <f>L95-F95</f>
+        <f t="shared" si="29"/>
         <v>-135</v>
       </c>
       <c r="N95" s="8"/>
@@ -7488,18 +7488,18 @@
       </c>
       <c r="C96" s="22"/>
       <c r="F96" s="26">
-        <f>SUM(B96:E96)</f>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
       <c r="I96" s="23"/>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="25">
-        <f>SUM(G96:K96)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M96" s="8">
-        <f>L96-F96</f>
+        <f t="shared" si="29"/>
         <v>-48</v>
       </c>
       <c r="N96" s="8"/>
@@ -7515,18 +7515,18 @@
       </c>
       <c r="C97" s="22"/>
       <c r="F97" s="26">
-        <f>SUM(B97:E97)</f>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="I97" s="23"/>
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
       <c r="L97" s="25">
-        <f>SUM(G97:K97)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M97" s="8">
-        <f>L97-F97</f>
+        <f t="shared" si="29"/>
         <v>-3</v>
       </c>
       <c r="N97" s="8"/>
@@ -7549,7 +7549,7 @@
         <v>228</v>
       </c>
       <c r="F98" s="10">
-        <f>SUM(B98:E98)</f>
+        <f t="shared" si="27"/>
         <v>879</v>
       </c>
       <c r="H98">
@@ -7565,11 +7565,11 @@
         <v>1</v>
       </c>
       <c r="L98" s="4">
-        <f>SUM(G98:K98)</f>
+        <f t="shared" si="28"/>
         <v>879</v>
       </c>
       <c r="M98" s="8">
-        <f>L98-F98</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N98" s="8" t="b">
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="10">
-        <f>SUM(B99:E99)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G99">
@@ -7610,11 +7610,11 @@
         <v>-2</v>
       </c>
       <c r="L99" s="4">
-        <f>SUM(G99:K99)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M99" s="8">
-        <f>L99-F99</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N99" s="8" t="b">
@@ -7747,7 +7747,7 @@
         <v>-64</v>
       </c>
       <c r="F104" s="11">
-        <f>SUM(B104:E104)</f>
+        <f t="shared" ref="F104:F112" si="30">SUM(B104:E104)</f>
         <v>36</v>
       </c>
       <c r="H104">
@@ -7756,11 +7756,11 @@
       </c>
       <c r="I104" s="8"/>
       <c r="L104" s="4">
-        <f>SUM(G104:K104)</f>
+        <f t="shared" ref="L104:L112" si="31">SUM(G104:K104)</f>
         <v>36</v>
       </c>
       <c r="M104" s="8">
-        <f>L104-F104</f>
+        <f t="shared" ref="M104:M112" si="32">L104-F104</f>
         <v>0</v>
       </c>
       <c r="N104" s="8" t="b">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="F105" s="11">
-        <f>SUM(B105:E105)</f>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="I105" s="8"/>
@@ -7797,11 +7797,11 @@
         <v>16</v>
       </c>
       <c r="L105" s="4">
-        <f>SUM(G105:K105)</f>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="M105" s="8">
-        <f>L105-F105</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N105" s="8" t="b">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="C106" s="8"/>
       <c r="F106" s="11">
-        <f>SUM(B106:E106)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I106" s="8"/>
@@ -7844,11 +7844,11 @@
         <v>1</v>
       </c>
       <c r="L106" s="4">
-        <f>SUM(G106:K106)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="M106" s="8">
-        <f>L106-F106</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N106" s="8" t="b">
@@ -7889,7 +7889,7 @@
         <v>-192</v>
       </c>
       <c r="F107" s="11">
-        <f>SUM(B107:E107)</f>
+        <f t="shared" si="30"/>
         <v>112</v>
       </c>
       <c r="H107">
@@ -7905,11 +7905,11 @@
         <v>4</v>
       </c>
       <c r="L107" s="4">
-        <f>SUM(G107:K107)</f>
+        <f t="shared" si="31"/>
         <v>112</v>
       </c>
       <c r="M107" s="8">
-        <f>L107-F107</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N107" s="8" t="b">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C108" s="22"/>
       <c r="F108" s="26">
-        <f>SUM(B108:E108)</f>
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="I108" s="13"/>
@@ -7956,11 +7956,11 @@
         <v>1</v>
       </c>
       <c r="L108" s="25">
-        <f>SUM(G108:K108)</f>
+        <f t="shared" si="31"/>
         <v>65</v>
       </c>
       <c r="M108" s="8">
-        <f>L108-F108</f>
+        <f t="shared" si="32"/>
         <v>-135</v>
       </c>
       <c r="N108" s="8"/>
@@ -7976,17 +7976,17 @@
       </c>
       <c r="C109" s="22"/>
       <c r="F109" s="26">
-        <f>SUM(B109:E109)</f>
+        <f t="shared" si="30"/>
         <v>48</v>
       </c>
       <c r="J109" s="23"/>
       <c r="K109" s="23"/>
       <c r="L109" s="25">
-        <f>SUM(G109:K109)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M109" s="8">
-        <f>L109-F109</f>
+        <f t="shared" si="32"/>
         <v>-48</v>
       </c>
       <c r="N109" s="8"/>
@@ -8002,17 +8002,17 @@
       </c>
       <c r="C110" s="22"/>
       <c r="F110" s="26">
-        <f>SUM(B110:E110)</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
       <c r="L110" s="25">
-        <f>SUM(G110:K110)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M110" s="8">
-        <f>L110-F110</f>
+        <f t="shared" si="32"/>
         <v>-3</v>
       </c>
       <c r="N110" s="8"/>
@@ -8031,7 +8031,7 @@
         <v>-64</v>
       </c>
       <c r="F111" s="10">
-        <f>SUM(B111:E111)</f>
+        <f t="shared" si="30"/>
         <v>187</v>
       </c>
       <c r="G111">
@@ -8051,11 +8051,11 @@
         <v>1</v>
       </c>
       <c r="L111" s="4">
-        <f>SUM(G111:K111)</f>
+        <f t="shared" si="31"/>
         <v>187</v>
       </c>
       <c r="M111" s="8">
-        <f>L111-F111</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N111" s="8" t="b">
@@ -8080,7 +8080,7 @@
         <v>64</v>
       </c>
       <c r="F112" s="10">
-        <f>SUM(B112:E112)</f>
+        <f t="shared" si="30"/>
         <v>-36</v>
       </c>
       <c r="G112">
@@ -8096,11 +8096,11 @@
         <v>-2</v>
       </c>
       <c r="L112" s="4">
-        <f>SUM(G112:K112)</f>
+        <f t="shared" si="31"/>
         <v>-36</v>
       </c>
       <c r="M112" s="8">
-        <f>L112-F112</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N112" s="8" t="b">
@@ -8228,7 +8228,7 @@
         <v>-14</v>
       </c>
       <c r="F117" s="11">
-        <f>SUM(B117:E117)</f>
+        <f t="shared" ref="F117:F125" si="33">SUM(B117:E117)</f>
         <v>86</v>
       </c>
       <c r="G117">
@@ -8241,11 +8241,11 @@
       </c>
       <c r="I117" s="8"/>
       <c r="L117" s="4">
-        <f>SUM(G117:K117)</f>
+        <f t="shared" ref="L117:L125" si="34">SUM(G117:K117)</f>
         <v>86</v>
       </c>
       <c r="M117" s="8">
-        <f>L117-F117</f>
+        <f t="shared" ref="M117:M125" si="35">L117-F117</f>
         <v>0</v>
       </c>
       <c r="N117" s="8" t="b">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C118" s="8"/>
       <c r="F118" s="11">
-        <f>SUM(B118:E118)</f>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="I118" s="8"/>
@@ -8273,11 +8273,11 @@
         <v>16</v>
       </c>
       <c r="L118" s="4">
-        <f>SUM(G118:K118)</f>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="M118" s="8">
-        <f>L118-F118</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N118" s="8" t="b">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="C119" s="8"/>
       <c r="F119" s="11">
-        <f>SUM(B119:E119)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I119" s="8"/>
@@ -8305,11 +8305,11 @@
         <v>1</v>
       </c>
       <c r="L119" s="4">
-        <f>SUM(G119:K119)</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M119" s="8">
-        <f>L119-F119</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N119" s="8" t="b">
@@ -8336,7 +8336,7 @@
         <v>14</v>
       </c>
       <c r="F120" s="11">
-        <f>SUM(B120:E120)</f>
+        <f t="shared" si="33"/>
         <v>76</v>
       </c>
       <c r="H120">
@@ -8349,11 +8349,11 @@
         <v>4</v>
       </c>
       <c r="L120" s="4">
-        <f>SUM(G120:K120)</f>
+        <f t="shared" si="34"/>
         <v>76</v>
       </c>
       <c r="M120" s="8">
-        <f>L120-F120</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N120" s="8" t="b">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C121" s="22"/>
       <c r="F121" s="26">
-        <f>SUM(B121:E121)</f>
+        <f t="shared" si="33"/>
         <v>200</v>
       </c>
       <c r="I121" s="13"/>
@@ -8385,11 +8385,11 @@
         <v>1</v>
       </c>
       <c r="L121" s="25">
-        <f>SUM(G121:K121)</f>
+        <f t="shared" si="34"/>
         <v>65</v>
       </c>
       <c r="M121" s="8">
-        <f>L121-F121</f>
+        <f t="shared" si="35"/>
         <v>-135</v>
       </c>
       <c r="N121" s="8"/>
@@ -8405,17 +8405,17 @@
       </c>
       <c r="C122" s="22"/>
       <c r="F122" s="26">
-        <f>SUM(B122:E122)</f>
+        <f t="shared" si="33"/>
         <v>48</v>
       </c>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
       <c r="L122" s="25">
-        <f>SUM(G122:K122)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M122" s="8">
-        <f>L122-F122</f>
+        <f t="shared" si="35"/>
         <v>-48</v>
       </c>
       <c r="N122" s="8"/>
@@ -8431,17 +8431,17 @@
       </c>
       <c r="C123" s="22"/>
       <c r="F123" s="26">
-        <f>SUM(B123:E123)</f>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="25">
-        <f>SUM(G123:K123)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M123" s="8">
-        <f>L123-F123</f>
+        <f t="shared" si="35"/>
         <v>-3</v>
       </c>
       <c r="N123" s="8"/>
@@ -8464,7 +8464,7 @@
         <v>28</v>
       </c>
       <c r="F124" s="10">
-        <f>SUM(B124:E124)</f>
+        <f t="shared" si="33"/>
         <v>265</v>
       </c>
       <c r="G124">
@@ -8480,11 +8480,11 @@
         <v>1</v>
       </c>
       <c r="L124" s="4">
-        <f>SUM(G124:K124)</f>
+        <f t="shared" si="34"/>
         <v>265</v>
       </c>
       <c r="M124" s="8">
-        <f>L124-F124</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N124" s="8" t="b">
@@ -8505,7 +8505,7 @@
         <v>14</v>
       </c>
       <c r="F125" s="10">
-        <f>SUM(B125:E125)</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="J125">
@@ -8517,11 +8517,11 @@
         <v>-2</v>
       </c>
       <c r="L125" s="4">
-        <f>SUM(G125:K125)</f>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="M125" s="8">
-        <f>L125-F125</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N125" s="8" t="b">
@@ -8597,20 +8597,20 @@
       </c>
       <c r="C130" s="8"/>
       <c r="F130" s="11">
-        <f>SUM(B130:E130)</f>
+        <f t="shared" ref="F130:F135" si="36">SUM(B130:E130)</f>
         <v>0</v>
       </c>
       <c r="I130" s="8"/>
       <c r="L130" s="4">
-        <f>SUM(G130:K130)</f>
+        <f t="shared" ref="L130:L135" si="37">SUM(G130:K130)</f>
         <v>0</v>
       </c>
       <c r="M130" s="8">
-        <f>L130-F130</f>
+        <f t="shared" ref="M130:M135" si="38">L130-F130</f>
         <v>0</v>
       </c>
       <c r="N130" s="8" t="b">
-        <f>IF(ABS(M130)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N130:N135" si="39">IF(ABS(M130)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O130" s="34"/>
@@ -8628,7 +8628,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="11">
-        <f>SUM(B131:E131)</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="G131">
@@ -8637,15 +8637,15 @@
       </c>
       <c r="I131" s="8"/>
       <c r="L131" s="4">
-        <f>SUM(G131:K131)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="M131" s="8">
-        <f>L131-F131</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N131" s="8" t="b">
-        <f>IF(ABS(M131)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O131" s="34"/>
@@ -8656,20 +8656,20 @@
       </c>
       <c r="C132" s="8"/>
       <c r="F132" s="11">
-        <f>SUM(B132:E132)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I132" s="8"/>
       <c r="L132" s="4">
-        <f>SUM(G132:K132)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M132" s="8">
-        <f>L132-F132</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N132" s="8" t="b">
-        <f>IF(ABS(M132)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O132" s="34"/>
@@ -8683,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="11">
-        <f>SUM(B133:E133)</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="I133" s="8">
@@ -8691,15 +8691,15 @@
         <v>2</v>
       </c>
       <c r="L133" s="4">
-        <f>SUM(G133:K133)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="M133" s="8">
-        <f>L133-F133</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N133" s="8" t="b">
-        <f>IF(ABS(M133)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O133" s="34"/>
@@ -8713,7 +8713,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="10">
-        <f>SUM(B134:E134)</f>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="I134">
@@ -8721,15 +8721,15 @@
         <v>4</v>
       </c>
       <c r="L134" s="4">
-        <f>SUM(G134:K134)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="M134" s="8">
-        <f>L134-F134</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N134" s="8" t="b">
-        <f>IF(ABS(M134)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O134" s="34"/>
@@ -8747,19 +8747,19 @@
         <v>-1</v>
       </c>
       <c r="F135" s="10">
-        <f>SUM(B135:E135)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L135" s="4">
-        <f>SUM(G135:K135)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M135" s="8">
-        <f>L135-F135</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N135" s="8" t="b">
-        <f>IF(ABS(M135)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O135" s="34"/>
@@ -8827,20 +8827,20 @@
       </c>
       <c r="C140" s="8"/>
       <c r="F140" s="11">
-        <f>SUM(B140:E140)</f>
+        <f t="shared" ref="F140:F145" si="40">SUM(B140:E140)</f>
         <v>0</v>
       </c>
       <c r="I140" s="8"/>
       <c r="L140" s="4">
-        <f>SUM(G140:K140)</f>
+        <f t="shared" ref="L140:L145" si="41">SUM(G140:K140)</f>
         <v>0</v>
       </c>
       <c r="M140" s="8">
-        <f>L140-F140</f>
+        <f t="shared" ref="M140:M145" si="42">L140-F140</f>
         <v>0</v>
       </c>
       <c r="N140" s="8" t="b">
-        <f>IF(ABS(M140)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N140:N145" si="43">IF(ABS(M140)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O140" s="33"/>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="C141" s="8"/>
       <c r="F141" s="11">
-        <f>SUM(B141:E141)</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="G141">
@@ -8864,15 +8864,15 @@
       </c>
       <c r="I141" s="8"/>
       <c r="L141" s="4">
-        <f>SUM(G141:K141)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="M141" s="8">
-        <f>L141-F141</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N141" s="8" t="b">
-        <f>IF(ABS(M141)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O141" s="33"/>
@@ -8883,20 +8883,20 @@
       </c>
       <c r="C142" s="8"/>
       <c r="F142" s="11">
-        <f>SUM(B142:E142)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I142" s="8"/>
       <c r="L142" s="4">
-        <f>SUM(G142:K142)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M142" s="8">
-        <f>L142-F142</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N142" s="8" t="b">
-        <f>IF(ABS(M142)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O142" s="33"/>
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="11">
-        <f>SUM(B143:E143)</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="G143">
@@ -8923,15 +8923,15 @@
       </c>
       <c r="I143" s="8"/>
       <c r="L143" s="4">
-        <f>SUM(G143:K143)</f>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="M143" s="8">
-        <f>L143-F143</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N143" s="8" t="b">
-        <f>IF(ABS(M143)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O143" s="33"/>
@@ -8941,19 +8941,19 @@
         <v>40</v>
       </c>
       <c r="F144" s="10">
-        <f>SUM(B144:E144)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L144" s="4">
-        <f>SUM(G144:K144)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M144" s="8">
-        <f>L144-F144</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N144" s="8" t="b">
-        <f>IF(ABS(M144)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O144" s="33"/>
@@ -8967,7 +8967,7 @@
         <v>-1</v>
       </c>
       <c r="F145" s="10">
-        <f>SUM(B145:E145)</f>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="G145">
@@ -8975,15 +8975,15 @@
         <v>-1</v>
       </c>
       <c r="L145" s="4">
-        <f>SUM(G145:K145)</f>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="M145" s="8">
-        <f>L145-F145</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N145" s="8" t="b">
-        <f>IF(ABS(M145)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O145" s="33"/>
@@ -9076,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="F150" s="11">
-        <f>SUM(B150:E150)</f>
+        <f t="shared" ref="F150:F155" si="44">SUM(B150:E150)</f>
         <v>2</v>
       </c>
       <c r="H150">
@@ -9085,15 +9085,15 @@
       </c>
       <c r="I150" s="8"/>
       <c r="L150" s="4">
-        <f>SUM(G150:K150)</f>
+        <f t="shared" ref="L150:L155" si="45">SUM(G150:K150)</f>
         <v>2</v>
       </c>
       <c r="M150" s="8">
-        <f>L150-F150</f>
+        <f t="shared" ref="M150:M155" si="46">L150-F150</f>
         <v>0</v>
       </c>
       <c r="N150" s="8" t="b">
-        <f>IF(ABS(M150)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N150:N155" si="47">IF(ABS(M150)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O150" s="33"/>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="C151" s="8"/>
       <c r="F151" s="11">
-        <f>SUM(B151:E151)</f>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G151">
@@ -9117,15 +9117,15 @@
       </c>
       <c r="I151" s="8"/>
       <c r="L151" s="4">
-        <f>SUM(G151:K151)</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="M151" s="8">
-        <f>L151-F151</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N151" s="8" t="b">
-        <f>IF(ABS(M151)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O151" s="33"/>
@@ -9136,20 +9136,20 @@
       </c>
       <c r="C152" s="8"/>
       <c r="F152" s="11">
-        <f>SUM(B152:E152)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I152" s="8"/>
       <c r="L152" s="4">
-        <f>SUM(G152:K152)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M152" s="8">
-        <f>L152-F152</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N152" s="8" t="b">
-        <f>IF(ABS(M152)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O152" s="33"/>
@@ -9167,7 +9167,7 @@
         <v>6</v>
       </c>
       <c r="F153" s="11">
-        <f>SUM(B153:E153)</f>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="G153">
@@ -9183,15 +9183,15 @@
         <v>3</v>
       </c>
       <c r="L153" s="4">
-        <f>SUM(G153:K153)</f>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="M153" s="8">
-        <f>L153-F153</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N153" s="8" t="b">
-        <f>IF(ABS(M153)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O153" s="33"/>
@@ -9209,7 +9209,7 @@
         <v>2</v>
       </c>
       <c r="F154" s="10">
-        <f>SUM(B154:E154)</f>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="I154">
@@ -9217,15 +9217,15 @@
         <v>6</v>
       </c>
       <c r="L154" s="4">
-        <f>SUM(G154:K154)</f>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="M154" s="8">
-        <f>L154-F154</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N154" s="8" t="b">
-        <f>IF(ABS(M154)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O154" s="33"/>
@@ -9243,7 +9243,7 @@
         <v>-2</v>
       </c>
       <c r="F155" s="10">
-        <f>SUM(B155:E155)</f>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="G155">
@@ -9251,15 +9251,15 @@
         <v>-1</v>
       </c>
       <c r="L155" s="4">
-        <f>SUM(G155:K155)</f>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="M155" s="8">
-        <f>L155-F155</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N155" s="8" t="b">
-        <f>IF(ABS(M155)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O155" s="33"/>
@@ -9334,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="11">
-        <f>SUM(B159:E159)</f>
+        <f t="shared" ref="F159:F164" si="48">SUM(B159:E159)</f>
         <v>2</v>
       </c>
       <c r="H159">
@@ -9343,15 +9343,15 @@
       </c>
       <c r="I159" s="8"/>
       <c r="L159" s="4">
-        <f>SUM(G159:K159)</f>
+        <f t="shared" ref="L159:L164" si="49">SUM(G159:K159)</f>
         <v>2</v>
       </c>
       <c r="M159" s="8">
-        <f>L159-F159</f>
+        <f t="shared" ref="M159:M164" si="50">L159-F159</f>
         <v>0</v>
       </c>
       <c r="N159" s="8" t="b">
-        <f>IF(ABS(M159)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N159:N164" si="51">IF(ABS(M159)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O159" s="33"/>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="C160" s="8"/>
       <c r="F160" s="11">
-        <f>SUM(B160:E160)</f>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="G160">
@@ -9375,15 +9375,15 @@
       </c>
       <c r="I160" s="8"/>
       <c r="L160" s="4">
-        <f>SUM(G160:K160)</f>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="M160" s="8">
-        <f>L160-F160</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N160" s="8" t="b">
-        <f>IF(ABS(M160)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O160" s="33"/>
@@ -9394,20 +9394,20 @@
       </c>
       <c r="C161" s="8"/>
       <c r="F161" s="11">
-        <f>SUM(B161:E161)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I161" s="8"/>
       <c r="L161" s="4">
-        <f>SUM(G161:K161)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M161" s="8">
-        <f>L161-F161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N161" s="8" t="b">
-        <f>IF(ABS(M161)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O161" s="33"/>
@@ -9425,7 +9425,7 @@
         <v>6</v>
       </c>
       <c r="F162" s="11">
-        <f>SUM(B162:E162)</f>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="G162">
@@ -9441,15 +9441,15 @@
         <v>5</v>
       </c>
       <c r="L162" s="4">
-        <f>SUM(G162:K162)</f>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="M162" s="8">
-        <f>L162-F162</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N162" s="8" t="b">
-        <f>IF(ABS(M162)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O162" s="33"/>
@@ -9467,7 +9467,7 @@
         <v>2</v>
       </c>
       <c r="F163" s="10">
-        <f>SUM(B163:E163)</f>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="I163">
@@ -9475,15 +9475,15 @@
         <v>10</v>
       </c>
       <c r="L163" s="4">
-        <f>SUM(G163:K163)</f>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="M163" s="8">
-        <f>L163-F163</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N163" s="8" t="b">
-        <f>IF(ABS(M163)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O163" s="33"/>
@@ -9501,19 +9501,19 @@
         <v>-2</v>
       </c>
       <c r="F164" s="10">
-        <f>SUM(B164:E164)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L164" s="4">
-        <f>SUM(G164:K164)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M164" s="8">
-        <f>L164-F164</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N164" s="8" t="b">
-        <f>IF(ABS(M164)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O164" s="33"/>
@@ -9588,7 +9588,7 @@
         <v>2</v>
       </c>
       <c r="F168" s="11">
-        <f>SUM(B168:E168)</f>
+        <f t="shared" ref="F168:F173" si="52">SUM(B168:E168)</f>
         <v>2</v>
       </c>
       <c r="H168">
@@ -9597,15 +9597,15 @@
       </c>
       <c r="I168" s="8"/>
       <c r="L168" s="4">
-        <f>SUM(G168:K168)</f>
+        <f t="shared" ref="L168:L173" si="53">SUM(G168:K168)</f>
         <v>2</v>
       </c>
       <c r="M168" s="8">
-        <f>L168-F168</f>
+        <f t="shared" ref="M168:M173" si="54">L168-F168</f>
         <v>0</v>
       </c>
       <c r="N168" s="8" t="b">
-        <f>IF(ABS(M168)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N168:N173" si="55">IF(ABS(M168)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O168" s="33"/>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="C169" s="8"/>
       <c r="F169" s="11">
-        <f>SUM(B169:E169)</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="G169">
@@ -9629,15 +9629,15 @@
       </c>
       <c r="I169" s="8"/>
       <c r="L169" s="4">
-        <f>SUM(G169:K169)</f>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="M169" s="8">
-        <f>L169-F169</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N169" s="8" t="b">
-        <f>IF(ABS(M169)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O169" s="33"/>
@@ -9648,20 +9648,20 @@
       </c>
       <c r="C170" s="8"/>
       <c r="F170" s="11">
-        <f>SUM(B170:E170)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I170" s="8"/>
       <c r="L170" s="4">
-        <f>SUM(G170:K170)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M170" s="8">
-        <f>L170-F170</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N170" s="8" t="b">
-        <f>IF(ABS(M170)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O170" s="33"/>
@@ -9679,7 +9679,7 @@
         <v>6</v>
       </c>
       <c r="F171" s="11">
-        <f>SUM(B171:E171)</f>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="G171">
@@ -9695,15 +9695,15 @@
         <v>3</v>
       </c>
       <c r="L171" s="4">
-        <f>SUM(G171:K171)</f>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="M171" s="8">
-        <f>L171-F171</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N171" s="8" t="b">
-        <f>IF(ABS(M171)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O171" s="33"/>
@@ -9721,7 +9721,7 @@
         <v>2</v>
       </c>
       <c r="F172" s="10">
-        <f>SUM(B172:E172)</f>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="I172">
@@ -9729,15 +9729,15 @@
         <v>6</v>
       </c>
       <c r="L172" s="4">
-        <f>SUM(G172:K172)</f>
+        <f t="shared" si="53"/>
         <v>6</v>
       </c>
       <c r="M172" s="8">
-        <f>L172-F172</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N172" s="8" t="b">
-        <f>IF(ABS(M172)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O172" s="33"/>
@@ -9755,7 +9755,7 @@
         <v>-2</v>
       </c>
       <c r="F173" s="10">
-        <f>SUM(B173:E173)</f>
+        <f t="shared" si="52"/>
         <v>-1</v>
       </c>
       <c r="G173">
@@ -9763,113 +9763,113 @@
         <v>-1</v>
       </c>
       <c r="L173" s="4">
-        <f>SUM(G173:K173)</f>
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="M173" s="8">
-        <f>L173-F173</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N173" s="8" t="b">
-        <f>IF(ABS(M173)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O173" s="33"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N47 N1:N34 N60 N73 N86:N87 N113 N126:N136 N146 N156:N1048576">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N46">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48:N59">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="42" priority="20" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N61:N72">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="40" priority="18" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74:N85">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N100">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="36" priority="14" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N88:N99">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N101:N112">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N114:N125">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N137:N145">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N137)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N147:N155">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI12:AI24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",AI12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",AI12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10037,7 +10037,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="4">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" ref="F5:F10" si="0">SUM(B5:E5)</f>
         <v>118</v>
       </c>
       <c r="H5">
@@ -10045,15 +10045,15 @@
         <v>118</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(G5:K5)</f>
+        <f t="shared" ref="L5:L10" si="1">SUM(G5:K5)</f>
         <v>118</v>
       </c>
       <c r="M5" s="8">
-        <f>L5-F5</f>
+        <f t="shared" ref="M5:M10" si="2">L5-F5</f>
         <v>0</v>
       </c>
       <c r="N5" s="8" t="b">
-        <f t="shared" ref="N5:N10" si="0">IF(ABS(M5)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N5:N10" si="3">IF(ABS(M5)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O5" s="32"/>
@@ -10082,7 +10082,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="4">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J6">
@@ -10090,15 +10090,15 @@
         <v>16</v>
       </c>
       <c r="L6" s="4">
-        <f>SUM(G6:K6)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M6" s="8">
-        <f>L6-F6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6" s="8" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O6" s="32"/>
@@ -10112,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K7">
@@ -10120,15 +10120,15 @@
         <v>1</v>
       </c>
       <c r="L7" s="4">
-        <f>SUM(G7:K7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M7" s="8">
-        <f>L7-F7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="8" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O7" s="32"/>
@@ -10150,7 +10150,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="4">
-        <f>SUM(B8:E8)</f>
+        <f t="shared" si="0"/>
         <v>422</v>
       </c>
       <c r="H8">
@@ -10170,15 +10170,15 @@
         <v>4</v>
       </c>
       <c r="L8" s="4">
-        <f>SUM(G8:K8)</f>
+        <f t="shared" si="1"/>
         <v>422</v>
       </c>
       <c r="M8" s="8">
-        <f>L8-F8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N8" s="8" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O8" s="32"/>
@@ -10196,7 +10196,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="4">
-        <f>SUM(B9:E9)</f>
+        <f t="shared" si="0"/>
         <v>269</v>
       </c>
       <c r="I9">
@@ -10208,15 +10208,15 @@
         <v>1</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM(G9:K9)</f>
+        <f t="shared" si="1"/>
         <v>269</v>
       </c>
       <c r="M9" s="8">
-        <f>L9-F9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="8" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O9" s="32"/>
@@ -10230,7 +10230,7 @@
         <v>-18</v>
       </c>
       <c r="F10" s="4">
-        <f>SUM(B10:E10)</f>
+        <f t="shared" si="0"/>
         <v>-18</v>
       </c>
       <c r="J10">
@@ -10242,15 +10242,15 @@
         <v>-2</v>
       </c>
       <c r="L10" s="4">
-        <f>SUM(G10:K10)</f>
+        <f t="shared" si="1"/>
         <v>-18</v>
       </c>
       <c r="M10" s="8">
-        <f>L10-F10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N10" s="8" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O10" s="32"/>
@@ -10495,7 +10495,7 @@
         <v>-14</v>
       </c>
       <c r="F15" s="11">
-        <f>SUM(B15:E15)</f>
+        <f t="shared" ref="F15:F23" si="4">SUM(B15:E15)</f>
         <v>86</v>
       </c>
       <c r="G15" s="8"/>
@@ -10505,15 +10505,15 @@
       </c>
       <c r="I15" s="13"/>
       <c r="L15" s="11">
-        <f>SUM(G15:K15)</f>
+        <f t="shared" ref="L15:L23" si="5">SUM(G15:K15)</f>
         <v>86</v>
       </c>
       <c r="M15" s="8">
-        <f>L15-F15</f>
+        <f t="shared" ref="M15:M23" si="6">L15-F15</f>
         <v>0</v>
       </c>
       <c r="N15" s="8" t="b">
-        <f t="shared" ref="N15:N23" si="1">IF(ABS(M15)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N15:N23" si="7">IF(ABS(M15)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O15" s="32"/>
@@ -10540,15 +10540,15 @@
       </c>
       <c r="AD15" s="13"/>
       <c r="AG15" s="11">
-        <f t="shared" ref="AG15:AG17" si="2">SUM(Z15:AF15)</f>
+        <f t="shared" ref="AG15:AG17" si="8">SUM(Z15:AF15)</f>
         <v>86</v>
       </c>
       <c r="AH15" s="8">
-        <f t="shared" ref="AH15:AH23" si="3">AG15-Y15</f>
+        <f t="shared" ref="AH15:AH23" si="9">AG15-Y15</f>
         <v>0</v>
       </c>
       <c r="AI15" s="8" t="b">
-        <f t="shared" ref="AI15:AI23" si="4">IF(ABS(AH15)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="AI15:AI23" si="10">IF(ABS(AH15)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AJ15" s="32"/>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="F16" s="11">
-        <f>SUM(B16:E16)</f>
+        <f t="shared" si="4"/>
         <v>416</v>
       </c>
       <c r="G16" s="8">
@@ -10581,15 +10581,15 @@
         <v>16</v>
       </c>
       <c r="L16" s="11">
-        <f>SUM(G16:K16)</f>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="M16" s="8">
-        <f>L16-F16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N16" s="8" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O16" s="32"/>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="T16" s="8"/>
       <c r="Y16" s="11">
-        <f t="shared" ref="Y16:Y17" si="5">SUM(R16:X16)</f>
+        <f t="shared" ref="Y16:Y17" si="11">SUM(R16:X16)</f>
         <v>416</v>
       </c>
       <c r="Z16" s="8">
@@ -10620,15 +10620,15 @@
         <v>16</v>
       </c>
       <c r="AG16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>416</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI16" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AJ16" s="32"/>
@@ -10644,7 +10644,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="F17" s="11">
-        <f>SUM(B17:E17)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H17" s="8"/>
@@ -10654,15 +10654,15 @@
         <v>1</v>
       </c>
       <c r="L17" s="11">
-        <f>SUM(G17:K17)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M17" s="8">
-        <f>L17-F17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N17" s="8" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O17" s="32"/>
@@ -10676,7 +10676,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="Y17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AC17" s="8"/>
@@ -10686,15 +10686,15 @@
         <v>1</v>
       </c>
       <c r="AG17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AH17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI17" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AJ17" s="32"/>
@@ -10716,7 +10716,7 @@
         <v>-42</v>
       </c>
       <c r="F18" s="11">
-        <f>SUM(B18:E18)</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="H18" s="8">
@@ -10732,15 +10732,15 @@
         <v>4</v>
       </c>
       <c r="L18" s="11">
-        <f>SUM(G18:K18)</f>
+        <f t="shared" si="5"/>
         <v>262</v>
       </c>
       <c r="M18" s="8">
-        <f>L18-F18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N18" s="8" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O18" s="32"/>
@@ -10780,11 +10780,11 @@
         <v>262</v>
       </c>
       <c r="AH18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI18" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AJ18" s="32"/>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="D19" s="13"/>
       <c r="F19" s="12">
-        <f>SUM(B19:E19)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="H19" s="13"/>
@@ -10808,11 +10808,11 @@
         <v>172</v>
       </c>
       <c r="L19" s="11">
-        <f>SUM(G19:K19)</f>
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="M19" s="8">
-        <f>L19-F19</f>
+        <f t="shared" si="6"/>
         <v>-28</v>
       </c>
       <c r="N19" s="8"/>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="T19" s="13"/>
       <c r="Y19" s="12">
-        <f t="shared" ref="Y19:Y23" si="6">SUM(R19:X19)</f>
+        <f t="shared" ref="Y19:Y23" si="12">SUM(R19:X19)</f>
         <v>200</v>
       </c>
       <c r="AC19" s="13"/>
@@ -10835,11 +10835,11 @@
         <v>172</v>
       </c>
       <c r="AG19" s="11">
-        <f t="shared" ref="AG19:AG21" si="7">SUM(Z19:AF19)</f>
+        <f t="shared" ref="AG19:AG21" si="13">SUM(Z19:AF19)</f>
         <v>172</v>
       </c>
       <c r="AH19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-28</v>
       </c>
       <c r="AI19" s="8"/>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="D20" s="13"/>
       <c r="F20" s="12">
-        <f>SUM(B20:E20)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="H20" s="13"/>
@@ -10865,11 +10865,11 @@
         <v>64</v>
       </c>
       <c r="L20" s="11">
-        <f>SUM(G20:K20)</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="M20" s="8">
-        <f>L20-F20</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N20" s="8"/>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="T20" s="13"/>
       <c r="Y20" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="AC20" s="13"/>
@@ -10893,11 +10893,11 @@
         <v>64</v>
       </c>
       <c r="AG20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="AH20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AI20" s="8"/>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="D21" s="13"/>
       <c r="F21" s="12">
-        <f>SUM(B21:E21)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H21" s="13"/>
@@ -10923,11 +10923,11 @@
         <v>1</v>
       </c>
       <c r="L21" s="11">
-        <f>SUM(G21:K21)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M21" s="8">
-        <f>L21-F21</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="N21" s="8"/>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="T21" s="13"/>
       <c r="Y21" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC21" s="13"/>
@@ -10951,11 +10951,11 @@
         <v>1</v>
       </c>
       <c r="AG21" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AH21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="AI21" s="8"/>
@@ -10974,7 +10974,7 @@
         <v>-14</v>
       </c>
       <c r="F22" s="12">
-        <f>SUM(B22:E22)</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="H22" s="8">
@@ -10982,27 +10982,27 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" ref="I22:K22" si="8">I19+I20+I21</f>
+        <f t="shared" ref="I22:K22" si="14">I19+I20+I21</f>
         <v>172</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L22" s="11">
-        <f>SUM(G22:K22)</f>
+        <f t="shared" si="5"/>
         <v>237</v>
       </c>
       <c r="M22" s="8">
-        <f>L22-F22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N22" s="8" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O22" s="32"/>
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>237</v>
       </c>
       <c r="AC22" s="8">
@@ -11030,15 +11030,15 @@
         <v>0</v>
       </c>
       <c r="AD22" s="8">
-        <f t="shared" ref="AD22" si="9">AD19+AD20+AD21</f>
+        <f t="shared" ref="AD22" si="15">AD19+AD20+AD21</f>
         <v>172</v>
       </c>
       <c r="AE22" s="8">
-        <f t="shared" ref="AE22" si="10">AE19+AE20+AE21</f>
+        <f t="shared" ref="AE22" si="16">AE19+AE20+AE21</f>
         <v>64</v>
       </c>
       <c r="AF22" s="8">
-        <f t="shared" ref="AF22" si="11">AF19+AF20+AF21</f>
+        <f t="shared" ref="AF22" si="17">AF19+AF20+AF21</f>
         <v>1</v>
       </c>
       <c r="AG22" s="11">
@@ -11046,11 +11046,11 @@
         <v>237</v>
       </c>
       <c r="AH22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI22" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AJ22" s="32"/>
@@ -11070,7 +11070,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="12">
-        <f>SUM(B23:E23)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H23" s="8"/>
@@ -11084,15 +11084,15 @@
         <v>-2</v>
       </c>
       <c r="L23" s="11">
-        <f>SUM(G23:K23)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="M23" s="8">
-        <f>L23-F23</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N23" s="8" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O23" s="32"/>
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="AC23" s="8"/>
@@ -11132,11 +11132,11 @@
         <v>14</v>
       </c>
       <c r="AH23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI23" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AJ23" s="32"/>
@@ -11275,7 +11275,7 @@
         <v>-94</v>
       </c>
       <c r="F28" s="4">
-        <f>SUM(B28:E28)</f>
+        <f t="shared" ref="F28:F33" si="18">SUM(B28:E28)</f>
         <v>6</v>
       </c>
       <c r="H28" s="8">
@@ -11284,15 +11284,15 @@
       </c>
       <c r="I28" s="13"/>
       <c r="L28" s="4">
-        <f>SUM(G28:K28)</f>
+        <f t="shared" ref="L28:L33" si="19">SUM(G28:K28)</f>
         <v>6</v>
       </c>
       <c r="M28" s="8">
-        <f>L28-F28</f>
+        <f t="shared" ref="M28:M33" si="20">L28-F28</f>
         <v>0</v>
       </c>
       <c r="N28" s="8" t="b">
-        <f t="shared" ref="N28:N30" si="12">IF(ABS(M28)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N28:N30" si="21">IF(ABS(M28)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O28" s="32"/>
@@ -11310,7 +11310,7 @@
         <v>80</v>
       </c>
       <c r="F29" s="4">
-        <f>SUM(B29:E29)</f>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="G29">
@@ -11324,15 +11324,15 @@
         <v>16</v>
       </c>
       <c r="L29" s="4">
-        <f>SUM(G29:K29)</f>
+        <f t="shared" si="19"/>
         <v>96</v>
       </c>
       <c r="M29" s="8">
-        <f>L29-F29</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N29" s="8" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O29" s="32"/>
@@ -11346,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <f>SUM(B30:E30)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H30" s="8"/>
@@ -11356,15 +11356,15 @@
         <v>1</v>
       </c>
       <c r="L30" s="4">
-        <f>SUM(G30:K30)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M30" s="8">
-        <f>L30-F30</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N30" s="8" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O30" s="32"/>
@@ -11386,7 +11386,7 @@
         <v>-282</v>
       </c>
       <c r="F31" s="4">
-        <f>SUM(B31:E31)</f>
+        <f t="shared" si="18"/>
         <v>62</v>
       </c>
       <c r="H31" s="8">
@@ -11402,11 +11402,11 @@
         <v>4</v>
       </c>
       <c r="L31" s="4">
-        <f>SUM(G31:K31)</f>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="M31" s="8">
-        <f>L31-F31</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N31" s="8" t="b">
@@ -11428,7 +11428,7 @@
         <v>-94</v>
       </c>
       <c r="F32" s="10">
-        <f>SUM(B32:E32)</f>
+        <f t="shared" si="18"/>
         <v>157</v>
       </c>
       <c r="H32" s="13"/>
@@ -11445,11 +11445,11 @@
         <v>1</v>
       </c>
       <c r="L32" s="4">
-        <f>SUM(G32:K32)</f>
+        <f t="shared" si="19"/>
         <v>157</v>
       </c>
       <c r="M32" s="8">
-        <f>L32-F32</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N32" s="8" t="b">
@@ -11471,7 +11471,7 @@
         <v>94</v>
       </c>
       <c r="F33" s="10">
-        <f>SUM(B33:E33)</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="J33">
@@ -11483,11 +11483,11 @@
         <v>-1</v>
       </c>
       <c r="L33" s="4">
-        <f>SUM(G33:K33)</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="M33" s="8">
-        <f>L33-F33</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N33" s="8" t="b">
@@ -11620,7 +11620,7 @@
         <v>-14</v>
       </c>
       <c r="F38" s="4">
-        <f>SUM(B38:E38)</f>
+        <f t="shared" ref="F38:F46" si="22">SUM(B38:E38)</f>
         <v>86</v>
       </c>
       <c r="H38" s="8">
@@ -11629,15 +11629,15 @@
       </c>
       <c r="I38" s="13"/>
       <c r="L38" s="4">
-        <f>SUM(G38:K38)</f>
+        <f t="shared" ref="L38:L46" si="23">SUM(G38:K38)</f>
         <v>86</v>
       </c>
       <c r="M38" s="8">
-        <f>L38-F38</f>
+        <f t="shared" ref="M38:M46" si="24">L38-F38</f>
         <v>0</v>
       </c>
       <c r="N38" s="8" t="b">
-        <f t="shared" ref="N38:N40" si="13">IF(ABS(M38)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N38:N40" si="25">IF(ABS(M38)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O38" s="32"/>
@@ -11655,7 +11655,7 @@
         <v>200</v>
       </c>
       <c r="F39" s="4">
-        <f>SUM(B39:E39)</f>
+        <f t="shared" si="22"/>
         <v>216</v>
       </c>
       <c r="G39">
@@ -11669,15 +11669,15 @@
         <v>16</v>
       </c>
       <c r="L39" s="4">
-        <f>SUM(G39:K39)</f>
+        <f t="shared" si="23"/>
         <v>216</v>
       </c>
       <c r="M39" s="8">
-        <f>L39-F39</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N39" s="8" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O39" s="32"/>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="C40" s="8"/>
       <c r="F40" s="4">
-        <f>SUM(B40:E40)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="H40" s="8"/>
@@ -11702,15 +11702,15 @@
         <v>1</v>
       </c>
       <c r="L40" s="4">
-        <f>SUM(G40:K40)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="M40" s="8">
-        <f>L40-F40</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N40" s="8" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O40" s="32"/>
@@ -11732,7 +11732,7 @@
         <v>-42</v>
       </c>
       <c r="F41" s="4">
-        <f>SUM(B41:E41)</f>
+        <f t="shared" si="22"/>
         <v>662</v>
       </c>
       <c r="G41">
@@ -11752,11 +11752,11 @@
         <v>4</v>
       </c>
       <c r="L41" s="4">
-        <f>SUM(G41:K41)</f>
+        <f t="shared" si="23"/>
         <v>662</v>
       </c>
       <c r="M41" s="8">
-        <f>L41-F41</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N41" s="8" t="b">
@@ -11776,7 +11776,7 @@
       <c r="C42" s="22"/>
       <c r="D42" s="23"/>
       <c r="F42" s="26">
-        <f>SUM(B42:E42)</f>
+        <f t="shared" si="22"/>
         <v>200</v>
       </c>
       <c r="H42" s="13"/>
@@ -11793,11 +11793,11 @@
         <v>1</v>
       </c>
       <c r="L42" s="25">
-        <f>SUM(G42:K42)</f>
+        <f t="shared" si="23"/>
         <v>237</v>
       </c>
       <c r="M42" s="8">
-        <f>L42-F42</f>
+        <f t="shared" si="24"/>
         <v>37</v>
       </c>
       <c r="N42" s="8"/>
@@ -11814,18 +11814,18 @@
       <c r="C43" s="22"/>
       <c r="D43" s="23"/>
       <c r="F43" s="26">
-        <f>SUM(B43:E43)</f>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="25">
-        <f>SUM(G43:K43)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f>L43-F43</f>
+        <f t="shared" si="24"/>
         <v>-48</v>
       </c>
       <c r="N43" s="8"/>
@@ -11842,18 +11842,18 @@
       <c r="C44" s="22"/>
       <c r="D44" s="23"/>
       <c r="F44" s="26">
-        <f>SUM(B44:E44)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="25">
-        <f>SUM(G44:K44)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
-        <f>L44-F44</f>
+        <f t="shared" si="24"/>
         <v>-3</v>
       </c>
       <c r="N44" s="8"/>
@@ -11872,7 +11872,7 @@
         <v>-14</v>
       </c>
       <c r="F45" s="10">
-        <f>SUM(B45:E45)</f>
+        <f t="shared" si="22"/>
         <v>237</v>
       </c>
       <c r="I45">
@@ -11888,15 +11888,15 @@
         <v>1</v>
       </c>
       <c r="L45" s="4">
-        <f>SUM(G45:K45)</f>
+        <f t="shared" si="23"/>
         <v>237</v>
       </c>
       <c r="M45" s="8">
-        <f>L45-F45</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N45" s="8" t="b">
-        <f t="shared" ref="N45:N46" si="14">IF(ABS(M45)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N45:N46" si="26">IF(ABS(M45)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O45" s="32"/>
@@ -11917,7 +11917,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="10">
-        <f>SUM(B46:E46)</f>
+        <f t="shared" si="22"/>
         <v>-186</v>
       </c>
       <c r="G46">
@@ -11933,15 +11933,15 @@
         <v>-2</v>
       </c>
       <c r="L46" s="4">
-        <f>SUM(G46:K46)</f>
+        <f t="shared" si="23"/>
         <v>-186</v>
       </c>
       <c r="M46" s="8">
-        <f>L46-F46</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N46" s="8" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="O46" s="32"/>
@@ -12070,7 +12070,7 @@
         <v>-147.33333333333331</v>
       </c>
       <c r="F51" s="11">
-        <f>SUM(B51:E51)</f>
+        <f t="shared" ref="F51:F59" si="27">SUM(B51:E51)</f>
         <v>-47.333333333333314</v>
       </c>
       <c r="G51" s="8"/>
@@ -12080,15 +12080,15 @@
       </c>
       <c r="I51" s="13"/>
       <c r="L51" s="11">
-        <f>SUM(G51:K51)</f>
+        <f t="shared" ref="L51:L59" si="28">SUM(G51:K51)</f>
         <v>-47.333333333333314</v>
       </c>
       <c r="M51" s="8">
-        <f>L51-F51</f>
+        <f t="shared" ref="M51:M59" si="29">L51-F51</f>
         <v>0</v>
       </c>
       <c r="N51" s="8" t="b">
-        <f t="shared" ref="N51:N53" si="15">IF(ABS(M51)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N51:N53" si="30">IF(ABS(M51)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O51" s="32"/>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="D52" s="8"/>
       <c r="F52" s="11">
-        <f>SUM(B52:E52)</f>
+        <f t="shared" si="27"/>
         <v>82.666666666666657</v>
       </c>
       <c r="G52" s="8">
@@ -12121,15 +12121,15 @@
         <v>16</v>
       </c>
       <c r="L52" s="11">
-        <f>SUM(G52:K52)</f>
+        <f t="shared" si="28"/>
         <v>82.666666666666657</v>
       </c>
       <c r="M52" s="8">
-        <f>L52-F52</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N52" s="8" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O52" s="32"/>
@@ -12145,7 +12145,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="11">
-        <f>SUM(B53:E53)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G53" s="8"/>
@@ -12156,15 +12156,15 @@
         <v>1</v>
       </c>
       <c r="L53" s="11">
-        <f>SUM(G53:K53)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="M53" s="8">
-        <f>L53-F53</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N53" s="8" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O53" s="32"/>
@@ -12186,7 +12186,7 @@
         <v>-441.99999999999994</v>
       </c>
       <c r="F54" s="11">
-        <f>SUM(B54:E54)</f>
+        <f t="shared" si="27"/>
         <v>-204.66666666666663</v>
       </c>
       <c r="G54" s="8"/>
@@ -12203,11 +12203,11 @@
         <v>4</v>
       </c>
       <c r="L54" s="11">
-        <f>SUM(G54:K54)</f>
+        <f t="shared" si="28"/>
         <v>-204.66666666666663</v>
       </c>
       <c r="M54" s="8">
-        <f>L54-F54</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N54" s="8" t="b">
@@ -12227,7 +12227,7 @@
       <c r="C55" s="22"/>
       <c r="D55" s="35"/>
       <c r="F55" s="28">
-        <f>SUM(B55:E55)</f>
+        <f t="shared" si="27"/>
         <v>200</v>
       </c>
       <c r="G55" s="8"/>
@@ -12245,11 +12245,11 @@
         <v>1</v>
       </c>
       <c r="L55" s="29">
-        <f>SUM(G55:K55)</f>
+        <f t="shared" si="28"/>
         <v>-163</v>
       </c>
       <c r="M55" s="8">
-        <f>L55-F55</f>
+        <f t="shared" si="29"/>
         <v>-363</v>
       </c>
       <c r="N55" s="8"/>
@@ -12266,7 +12266,7 @@
       <c r="C56" s="22"/>
       <c r="D56" s="35"/>
       <c r="F56" s="28">
-        <f>SUM(B56:E56)</f>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
       <c r="G56" s="8"/>
@@ -12274,11 +12274,11 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="29">
-        <f>SUM(G56:K56)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M56" s="8">
-        <f>L56-F56</f>
+        <f t="shared" si="29"/>
         <v>-48</v>
       </c>
       <c r="N56" s="8"/>
@@ -12295,7 +12295,7 @@
       <c r="C57" s="22"/>
       <c r="D57" s="35"/>
       <c r="F57" s="28">
-        <f>SUM(B57:E57)</f>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="G57" s="8"/>
@@ -12303,11 +12303,11 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="29">
-        <f>SUM(G57:K57)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M57" s="8">
-        <f>L57-F57</f>
+        <f t="shared" si="29"/>
         <v>-3</v>
       </c>
       <c r="N57" s="8"/>
@@ -12326,7 +12326,7 @@
         <v>-147.33333333333331</v>
       </c>
       <c r="F58" s="12">
-        <f>SUM(B58:E58)</f>
+        <f t="shared" si="27"/>
         <v>103.66666666666669</v>
       </c>
       <c r="G58" s="8">
@@ -12346,15 +12346,15 @@
         <v>1</v>
       </c>
       <c r="L58" s="11">
-        <f>SUM(G58:K58)</f>
+        <f t="shared" si="28"/>
         <v>103.66666666666663</v>
       </c>
       <c r="M58" s="8">
-        <f>L58-F58</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N58" s="8" t="b">
-        <f t="shared" ref="N58:N59" si="16">IF(ABS(M58)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N58:N59" si="31">IF(ABS(M58)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O58" s="32"/>
@@ -12375,7 +12375,7 @@
         <v>147.33333333333331</v>
       </c>
       <c r="F59" s="12">
-        <f>SUM(B59:E59)</f>
+        <f t="shared" si="27"/>
         <v>80.666666666666657</v>
       </c>
       <c r="G59" s="8">
@@ -12391,15 +12391,15 @@
         <v>-2</v>
       </c>
       <c r="L59" s="11">
-        <f>SUM(G59:K59)</f>
+        <f t="shared" si="28"/>
         <v>80.666666666666657</v>
       </c>
       <c r="M59" s="8">
-        <f>L59-F59</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N59" s="8" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O59" s="32"/>
@@ -12529,7 +12529,7 @@
         <v>-214</v>
       </c>
       <c r="F64" s="4">
-        <f>SUM(B64:E64)</f>
+        <f t="shared" ref="F64:F72" si="32">SUM(B64:E64)</f>
         <v>-114</v>
       </c>
       <c r="H64" s="8">
@@ -12538,15 +12538,15 @@
       </c>
       <c r="I64" s="13"/>
       <c r="L64" s="4">
-        <f>SUM(G64:K64)</f>
+        <f t="shared" ref="L64:L72" si="33">SUM(G64:K64)</f>
         <v>-114</v>
       </c>
       <c r="M64" s="8">
-        <f>L64-F64</f>
+        <f t="shared" ref="M64:M72" si="34">L64-F64</f>
         <v>0</v>
       </c>
       <c r="N64" s="8" t="b">
-        <f t="shared" ref="N64:N66" si="17">IF(ABS(M64)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N64:N66" si="35">IF(ABS(M64)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O64" s="32"/>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="D65" s="8"/>
       <c r="F65" s="4">
-        <f>SUM(B65:E65)</f>
+        <f t="shared" si="32"/>
         <v>216</v>
       </c>
       <c r="G65">
@@ -12579,15 +12579,15 @@
         <v>16</v>
       </c>
       <c r="L65" s="4">
-        <f>SUM(G65:K65)</f>
+        <f t="shared" si="33"/>
         <v>216</v>
       </c>
       <c r="M65" s="8">
-        <f>L65-F65</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N65" s="8" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O65" s="32"/>
@@ -12603,7 +12603,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="4">
-        <f>SUM(B66:E66)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="H66" s="8"/>
@@ -12613,15 +12613,15 @@
         <v>1</v>
       </c>
       <c r="L66" s="4">
-        <f>SUM(G66:K66)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="M66" s="8">
-        <f>L66-F66</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N66" s="8" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O66" s="32"/>
@@ -12643,7 +12643,7 @@
         <v>-642</v>
       </c>
       <c r="F67" s="4">
-        <f>SUM(B67:E67)</f>
+        <f t="shared" si="32"/>
         <v>-138</v>
       </c>
       <c r="G67">
@@ -12663,11 +12663,11 @@
         <v>4</v>
       </c>
       <c r="L67" s="4">
-        <f>SUM(G67:K67)</f>
+        <f t="shared" si="33"/>
         <v>-138</v>
       </c>
       <c r="M67" s="8">
-        <f>L67-F67</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N67" s="8" t="b">
@@ -12687,7 +12687,7 @@
       <c r="C68" s="22"/>
       <c r="D68" s="35"/>
       <c r="F68" s="26">
-        <f>SUM(B68:E68)</f>
+        <f t="shared" si="32"/>
         <v>200</v>
       </c>
       <c r="H68" s="13"/>
@@ -12704,11 +12704,11 @@
         <v>1</v>
       </c>
       <c r="L68" s="25">
-        <f>SUM(G68:K68)</f>
+        <f t="shared" si="33"/>
         <v>37</v>
       </c>
       <c r="M68" s="8">
-        <f>L68-F68</f>
+        <f t="shared" si="34"/>
         <v>-163</v>
       </c>
       <c r="N68" s="8"/>
@@ -12725,18 +12725,18 @@
       <c r="C69" s="22"/>
       <c r="D69" s="35"/>
       <c r="F69" s="26">
-        <f>SUM(B69:E69)</f>
+        <f t="shared" si="32"/>
         <v>48</v>
       </c>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="25">
-        <f>SUM(G69:K69)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M69" s="8">
-        <f>L69-F69</f>
+        <f t="shared" si="34"/>
         <v>-48</v>
       </c>
       <c r="N69" s="8"/>
@@ -12753,18 +12753,18 @@
       <c r="C70" s="22"/>
       <c r="D70" s="35"/>
       <c r="F70" s="26">
-        <f>SUM(B70:E70)</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
       <c r="L70" s="25">
-        <f>SUM(G70:K70)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M70" s="8">
-        <f>L70-F70</f>
+        <f t="shared" si="34"/>
         <v>-3</v>
       </c>
       <c r="N70" s="8"/>
@@ -12783,7 +12783,7 @@
         <v>-214</v>
       </c>
       <c r="F71" s="10">
-        <f>SUM(B71:E71)</f>
+        <f t="shared" si="32"/>
         <v>37</v>
       </c>
       <c r="I71">
@@ -12799,15 +12799,15 @@
         <v>1</v>
       </c>
       <c r="L71" s="4">
-        <f>SUM(G71:K71)</f>
+        <f t="shared" si="33"/>
         <v>37</v>
       </c>
       <c r="M71" s="8">
-        <f>L71-F71</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N71" s="8" t="b">
-        <f t="shared" ref="N71:N72" si="18">IF(ABS(M71)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N71:N72" si="36">IF(ABS(M71)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O71" s="32"/>
@@ -12828,7 +12828,7 @@
         <v>214</v>
       </c>
       <c r="F72" s="10">
-        <f>SUM(B72:E72)</f>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="G72">
@@ -12844,15 +12844,15 @@
         <v>-2</v>
       </c>
       <c r="L72" s="4">
-        <f>SUM(G72:K72)</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="M72" s="8">
-        <f>L72-F72</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N72" s="8" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="O72" s="32"/>
@@ -12983,7 +12983,7 @@
         <v>314</v>
       </c>
       <c r="F77" s="4">
-        <f>SUM(B77:E77)</f>
+        <f t="shared" ref="F77:F85" si="37">SUM(B77:E77)</f>
         <v>414</v>
       </c>
       <c r="H77" s="8">
@@ -12992,15 +12992,15 @@
       </c>
       <c r="I77" s="13"/>
       <c r="L77" s="4">
-        <f>SUM(G77:K77)</f>
+        <f t="shared" ref="L77:L85" si="38">SUM(G77:K77)</f>
         <v>414</v>
       </c>
       <c r="M77" s="8">
-        <f>L77-F77</f>
+        <f t="shared" ref="M77:M85" si="39">L77-F77</f>
         <v>0</v>
       </c>
       <c r="N77" s="8" t="b">
-        <f t="shared" ref="N77:N79" si="19">IF(ABS(M77)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N77:N79" si="40">IF(ABS(M77)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O77" s="32"/>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="C78" s="8"/>
       <c r="F78" s="4">
-        <f>SUM(B78:E78)</f>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="H78" s="8"/>
@@ -13025,15 +13025,15 @@
         <v>16</v>
       </c>
       <c r="L78" s="4">
-        <f>SUM(G78:K78)</f>
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
       <c r="M78" s="8">
-        <f>L78-F78</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N78" s="8" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="O78" s="32"/>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="C79" s="8"/>
       <c r="F79" s="4">
-        <f>SUM(B79:E79)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="H79" s="8"/>
@@ -13058,15 +13058,15 @@
         <v>1</v>
       </c>
       <c r="L79" s="4">
-        <f>SUM(G79:K79)</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="M79" s="8">
-        <f>L79-F79</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N79" s="8" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="O79" s="32"/>
@@ -13092,7 +13092,7 @@
         <v>628</v>
       </c>
       <c r="F80" s="4">
-        <f>SUM(B80:E80)</f>
+        <f t="shared" si="37"/>
         <v>1246</v>
       </c>
       <c r="H80" s="8">
@@ -13105,11 +13105,11 @@
         <v>4</v>
       </c>
       <c r="L80" s="4">
-        <f>SUM(G80:K80)</f>
+        <f t="shared" si="38"/>
         <v>1246</v>
       </c>
       <c r="M80" s="8">
-        <f>L80-F80</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N80" s="8" t="b">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="C81" s="22"/>
       <c r="F81" s="26">
-        <f>SUM(B81:E81)</f>
+        <f t="shared" si="37"/>
         <v>200</v>
       </c>
       <c r="H81" s="13"/>
@@ -13142,11 +13142,11 @@
         <v>1</v>
       </c>
       <c r="L81" s="25">
-        <f>SUM(G81:K81)</f>
+        <f t="shared" si="38"/>
         <v>65</v>
       </c>
       <c r="M81" s="8">
-        <f>L81-F81</f>
+        <f t="shared" si="39"/>
         <v>-135</v>
       </c>
       <c r="N81" s="8"/>
@@ -13162,18 +13162,18 @@
       </c>
       <c r="C82" s="22"/>
       <c r="F82" s="26">
-        <f>SUM(B82:E82)</f>
+        <f t="shared" si="37"/>
         <v>48</v>
       </c>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="25">
-        <f>SUM(G82:K82)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M82" s="8">
-        <f>L82-F82</f>
+        <f t="shared" si="39"/>
         <v>-48</v>
       </c>
       <c r="N82" s="8"/>
@@ -13189,18 +13189,18 @@
       </c>
       <c r="C83" s="22"/>
       <c r="F83" s="26">
-        <f>SUM(B83:E83)</f>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="25">
-        <f>SUM(G83:K83)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M83" s="8">
-        <f>L83-F83</f>
+        <f t="shared" si="39"/>
         <v>-3</v>
       </c>
       <c r="N83" s="8"/>
@@ -13219,7 +13219,7 @@
         <v>228</v>
       </c>
       <c r="F84" s="10">
-        <f>SUM(B84:E84)</f>
+        <f t="shared" si="37"/>
         <v>479</v>
       </c>
       <c r="H84">
@@ -13235,15 +13235,15 @@
         <v>1</v>
       </c>
       <c r="L84" s="4">
-        <f>SUM(G84:K84)</f>
+        <f t="shared" si="38"/>
         <v>479</v>
       </c>
       <c r="M84" s="8">
-        <f>L84-F84</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N84" s="8" t="b">
-        <f t="shared" ref="N84:N85" si="20">IF(ABS(M84)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N84:N85" si="41">IF(ABS(M84)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O84" s="32"/>
@@ -13260,7 +13260,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="10">
-        <f>SUM(B85:E85)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G85">
@@ -13280,15 +13280,15 @@
         <v>-2</v>
       </c>
       <c r="L85" s="4">
-        <f>SUM(G85:K85)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M85" s="8">
-        <f>L85-F85</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N85" s="8" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="O85" s="32"/>
@@ -13422,7 +13422,7 @@
         <v>714</v>
       </c>
       <c r="F91" s="4">
-        <f>SUM(B91:E91)</f>
+        <f t="shared" ref="F91:F99" si="42">SUM(B91:E91)</f>
         <v>814</v>
       </c>
       <c r="H91" s="8">
@@ -13431,15 +13431,15 @@
       </c>
       <c r="I91" s="13"/>
       <c r="L91" s="4">
-        <f>SUM(G91:K91)</f>
+        <f t="shared" ref="L91:L99" si="43">SUM(G91:K91)</f>
         <v>814</v>
       </c>
       <c r="M91" s="8">
-        <f>L91-F91</f>
+        <f t="shared" ref="M91:M99" si="44">L91-F91</f>
         <v>0</v>
       </c>
       <c r="N91" s="8" t="b">
-        <f t="shared" ref="N91:N93" si="21">IF(ABS(M91)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N91:N93" si="45">IF(ABS(M91)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O91" s="32"/>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="C92" s="8"/>
       <c r="F92" s="4">
-        <f>SUM(B92:E92)</f>
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
       <c r="H92" s="8"/>
@@ -13464,15 +13464,15 @@
         <v>16</v>
       </c>
       <c r="L92" s="4">
-        <f>SUM(G92:K92)</f>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="M92" s="8">
-        <f>L92-F92</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N92" s="8" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="O92" s="32"/>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="C93" s="8"/>
       <c r="F93" s="4">
-        <f>SUM(B93:E93)</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="H93" s="8"/>
@@ -13497,15 +13497,15 @@
         <v>1</v>
       </c>
       <c r="L93" s="4">
-        <f>SUM(G93:K93)</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="M93" s="8">
-        <f>L93-F93</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N93" s="8" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="O93" s="32"/>
@@ -13531,7 +13531,7 @@
         <v>1428</v>
       </c>
       <c r="F94" s="4">
-        <f>SUM(B94:E94)</f>
+        <f t="shared" si="42"/>
         <v>2446</v>
       </c>
       <c r="H94" s="8">
@@ -13544,11 +13544,11 @@
         <v>4</v>
       </c>
       <c r="L94" s="4">
-        <f>SUM(G94:K94)</f>
+        <f t="shared" si="43"/>
         <v>2446</v>
       </c>
       <c r="M94" s="8">
-        <f>L94-F94</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N94" s="8" t="b">
@@ -13567,7 +13567,7 @@
       </c>
       <c r="C95" s="22"/>
       <c r="F95" s="26">
-        <f>SUM(B95:E95)</f>
+        <f t="shared" si="42"/>
         <v>200</v>
       </c>
       <c r="H95" s="13"/>
@@ -13581,11 +13581,11 @@
         <v>1</v>
       </c>
       <c r="L95" s="25">
-        <f>SUM(G95:K95)</f>
+        <f t="shared" si="43"/>
         <v>65</v>
       </c>
       <c r="M95" s="8">
-        <f>L95-F95</f>
+        <f t="shared" si="44"/>
         <v>-135</v>
       </c>
       <c r="N95" s="8"/>
@@ -13601,18 +13601,18 @@
       </c>
       <c r="C96" s="22"/>
       <c r="F96" s="26">
-        <f>SUM(B96:E96)</f>
+        <f t="shared" si="42"/>
         <v>48</v>
       </c>
       <c r="I96" s="23"/>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="25">
-        <f>SUM(G96:K96)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M96" s="8">
-        <f>L96-F96</f>
+        <f t="shared" si="44"/>
         <v>-48</v>
       </c>
       <c r="N96" s="8"/>
@@ -13628,18 +13628,18 @@
       </c>
       <c r="C97" s="22"/>
       <c r="F97" s="26">
-        <f>SUM(B97:E97)</f>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="I97" s="23"/>
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
       <c r="L97" s="25">
-        <f>SUM(G97:K97)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M97" s="8">
-        <f>L97-F97</f>
+        <f t="shared" si="44"/>
         <v>-3</v>
       </c>
       <c r="N97" s="8"/>
@@ -13662,7 +13662,7 @@
         <v>228</v>
       </c>
       <c r="F98" s="10">
-        <f>SUM(B98:E98)</f>
+        <f t="shared" si="42"/>
         <v>879</v>
       </c>
       <c r="H98">
@@ -13678,15 +13678,15 @@
         <v>1</v>
       </c>
       <c r="L98" s="4">
-        <f>SUM(G98:K98)</f>
+        <f t="shared" si="43"/>
         <v>879</v>
       </c>
       <c r="M98" s="8">
-        <f>L98-F98</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N98" s="8" t="b">
-        <f t="shared" ref="N98:N99" si="22">IF(ABS(M98)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N98:N99" si="46">IF(ABS(M98)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O98" s="32"/>
@@ -13703,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="10">
-        <f>SUM(B99:E99)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G99">
@@ -13723,15 +13723,15 @@
         <v>-2</v>
       </c>
       <c r="L99" s="4">
-        <f>SUM(G99:K99)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M99" s="8">
-        <f>L99-F99</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N99" s="8" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="O99" s="32"/>
@@ -13860,7 +13860,7 @@
         <v>-64</v>
       </c>
       <c r="F104" s="4">
-        <f>SUM(B104:E104)</f>
+        <f t="shared" ref="F104:F112" si="47">SUM(B104:E104)</f>
         <v>36</v>
       </c>
       <c r="H104">
@@ -13869,15 +13869,15 @@
       </c>
       <c r="I104" s="8"/>
       <c r="L104" s="4">
-        <f>SUM(G104:K104)</f>
+        <f t="shared" ref="L104:L112" si="48">SUM(G104:K104)</f>
         <v>36</v>
       </c>
       <c r="M104" s="8">
-        <f>L104-F104</f>
+        <f t="shared" ref="M104:M112" si="49">L104-F104</f>
         <v>0</v>
       </c>
       <c r="N104" s="8" t="b">
-        <f t="shared" ref="N104:N106" si="23">IF(ABS(M104)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N104:N106" si="50">IF(ABS(M104)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O104" s="32"/>
@@ -13901,7 +13901,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="F105" s="4">
-        <f>SUM(B105:E105)</f>
+        <f t="shared" si="47"/>
         <v>16</v>
       </c>
       <c r="I105" s="8"/>
@@ -13910,15 +13910,15 @@
         <v>16</v>
       </c>
       <c r="L105" s="4">
-        <f>SUM(G105:K105)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="M105" s="8">
-        <f>L105-F105</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N105" s="8" t="b">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="O105" s="32"/>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="C106" s="8"/>
       <c r="F106" s="4">
-        <f>SUM(B106:E106)</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I106" s="8"/>
@@ -13957,15 +13957,15 @@
         <v>1</v>
       </c>
       <c r="L106" s="4">
-        <f>SUM(G106:K106)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="M106" s="8">
-        <f>L106-F106</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N106" s="8" t="b">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="O106" s="32"/>
@@ -14002,7 +14002,7 @@
         <v>-192</v>
       </c>
       <c r="F107" s="4">
-        <f>SUM(B107:E107)</f>
+        <f t="shared" si="47"/>
         <v>112</v>
       </c>
       <c r="H107">
@@ -14018,11 +14018,11 @@
         <v>4</v>
       </c>
       <c r="L107" s="4">
-        <f>SUM(G107:K107)</f>
+        <f t="shared" si="48"/>
         <v>112</v>
       </c>
       <c r="M107" s="8">
-        <f>L107-F107</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N107" s="8" t="b">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="C108" s="22"/>
       <c r="F108" s="26">
-        <f>SUM(B108:E108)</f>
+        <f t="shared" si="47"/>
         <v>200</v>
       </c>
       <c r="I108" s="13"/>
@@ -14069,11 +14069,11 @@
         <v>1</v>
       </c>
       <c r="L108" s="25">
-        <f>SUM(G108:K108)</f>
+        <f t="shared" si="48"/>
         <v>65</v>
       </c>
       <c r="M108" s="8">
-        <f>L108-F108</f>
+        <f t="shared" si="49"/>
         <v>-135</v>
       </c>
       <c r="N108" s="8"/>
@@ -14089,17 +14089,17 @@
       </c>
       <c r="C109" s="22"/>
       <c r="F109" s="26">
-        <f>SUM(B109:E109)</f>
+        <f t="shared" si="47"/>
         <v>48</v>
       </c>
       <c r="J109" s="23"/>
       <c r="K109" s="23"/>
       <c r="L109" s="25">
-        <f>SUM(G109:K109)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M109" s="8">
-        <f>L109-F109</f>
+        <f t="shared" si="49"/>
         <v>-48</v>
       </c>
       <c r="N109" s="8"/>
@@ -14115,17 +14115,17 @@
       </c>
       <c r="C110" s="22"/>
       <c r="F110" s="26">
-        <f>SUM(B110:E110)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
       <c r="L110" s="25">
-        <f>SUM(G110:K110)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M110" s="8">
-        <f>L110-F110</f>
+        <f t="shared" si="49"/>
         <v>-3</v>
       </c>
       <c r="N110" s="8"/>
@@ -14144,7 +14144,7 @@
         <v>-64</v>
       </c>
       <c r="F111" s="10">
-        <f>SUM(B111:E111)</f>
+        <f t="shared" si="47"/>
         <v>187</v>
       </c>
       <c r="G111">
@@ -14164,15 +14164,15 @@
         <v>1</v>
       </c>
       <c r="L111" s="4">
-        <f>SUM(G111:K111)</f>
+        <f t="shared" si="48"/>
         <v>187</v>
       </c>
       <c r="M111" s="8">
-        <f>L111-F111</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N111" s="8" t="b">
-        <f t="shared" ref="N111:N112" si="24">IF(ABS(M111)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N111:N112" si="51">IF(ABS(M111)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O111" s="32"/>
@@ -14193,7 +14193,7 @@
         <v>64</v>
       </c>
       <c r="F112" s="10">
-        <f>SUM(B112:E112)</f>
+        <f t="shared" si="47"/>
         <v>-36</v>
       </c>
       <c r="G112">
@@ -14209,15 +14209,15 @@
         <v>-2</v>
       </c>
       <c r="L112" s="4">
-        <f>SUM(G112:K112)</f>
+        <f t="shared" si="48"/>
         <v>-36</v>
       </c>
       <c r="M112" s="8">
-        <f>L112-F112</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N112" s="8" t="b">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O112" s="32"/>
@@ -14341,7 +14341,7 @@
         <v>-14</v>
       </c>
       <c r="F117" s="4">
-        <f>SUM(B117:E117)</f>
+        <f t="shared" ref="F117:F125" si="52">SUM(B117:E117)</f>
         <v>86</v>
       </c>
       <c r="G117">
@@ -14354,15 +14354,15 @@
       </c>
       <c r="I117" s="8"/>
       <c r="L117" s="4">
-        <f>SUM(G117:K117)</f>
+        <f t="shared" ref="L117:L125" si="53">SUM(G117:K117)</f>
         <v>86</v>
       </c>
       <c r="M117" s="8">
-        <f>L117-F117</f>
+        <f t="shared" ref="M117:M125" si="54">L117-F117</f>
         <v>0</v>
       </c>
       <c r="N117" s="8" t="b">
-        <f t="shared" ref="N117:N119" si="25">IF(ABS(M117)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N117:N119" si="55">IF(ABS(M117)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O117" s="32"/>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="C118" s="8"/>
       <c r="F118" s="4">
-        <f>SUM(B118:E118)</f>
+        <f t="shared" si="52"/>
         <v>16</v>
       </c>
       <c r="I118" s="8"/>
@@ -14386,15 +14386,15 @@
         <v>16</v>
       </c>
       <c r="L118" s="4">
-        <f>SUM(G118:K118)</f>
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
       <c r="M118" s="8">
-        <f>L118-F118</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N118" s="8" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O118" s="32"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="C119" s="8"/>
       <c r="F119" s="4">
-        <f>SUM(B119:E119)</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="I119" s="8"/>
@@ -14418,15 +14418,15 @@
         <v>1</v>
       </c>
       <c r="L119" s="4">
-        <f>SUM(G119:K119)</f>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="M119" s="8">
-        <f>L119-F119</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N119" s="8" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O119" s="32"/>
@@ -14449,7 +14449,7 @@
         <v>14</v>
       </c>
       <c r="F120" s="4">
-        <f>SUM(B120:E120)</f>
+        <f t="shared" si="52"/>
         <v>76</v>
       </c>
       <c r="H120">
@@ -14462,11 +14462,11 @@
         <v>4</v>
       </c>
       <c r="L120" s="4">
-        <f>SUM(G120:K120)</f>
+        <f t="shared" si="53"/>
         <v>76</v>
       </c>
       <c r="M120" s="8">
-        <f>L120-F120</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N120" s="8" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="C121" s="22"/>
       <c r="F121" s="26">
-        <f>SUM(B121:E121)</f>
+        <f t="shared" si="52"/>
         <v>200</v>
       </c>
       <c r="I121" s="13"/>
@@ -14498,11 +14498,11 @@
         <v>1</v>
       </c>
       <c r="L121" s="25">
-        <f>SUM(G121:K121)</f>
+        <f t="shared" si="53"/>
         <v>65</v>
       </c>
       <c r="M121" s="8">
-        <f>L121-F121</f>
+        <f t="shared" si="54"/>
         <v>-135</v>
       </c>
       <c r="N121" s="8"/>
@@ -14518,17 +14518,17 @@
       </c>
       <c r="C122" s="22"/>
       <c r="F122" s="26">
-        <f>SUM(B122:E122)</f>
+        <f t="shared" si="52"/>
         <v>48</v>
       </c>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
       <c r="L122" s="25">
-        <f>SUM(G122:K122)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M122" s="8">
-        <f>L122-F122</f>
+        <f t="shared" si="54"/>
         <v>-48</v>
       </c>
       <c r="N122" s="8"/>
@@ -14544,17 +14544,17 @@
       </c>
       <c r="C123" s="22"/>
       <c r="F123" s="26">
-        <f>SUM(B123:E123)</f>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="25">
-        <f>SUM(G123:K123)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M123" s="8">
-        <f>L123-F123</f>
+        <f t="shared" si="54"/>
         <v>-3</v>
       </c>
       <c r="N123" s="8"/>
@@ -14577,7 +14577,7 @@
         <v>28</v>
       </c>
       <c r="F124" s="10">
-        <f>SUM(B124:E124)</f>
+        <f t="shared" si="52"/>
         <v>265</v>
       </c>
       <c r="G124">
@@ -14593,15 +14593,15 @@
         <v>1</v>
       </c>
       <c r="L124" s="4">
-        <f>SUM(G124:K124)</f>
+        <f t="shared" si="53"/>
         <v>265</v>
       </c>
       <c r="M124" s="8">
-        <f>L124-F124</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N124" s="8" t="b">
-        <f t="shared" ref="N124:N125" si="26">IF(ABS(M124)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N124:N125" si="56">IF(ABS(M124)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O124" s="32"/>
@@ -14618,7 +14618,7 @@
         <v>14</v>
       </c>
       <c r="F125" s="10">
-        <f>SUM(B125:E125)</f>
+        <f t="shared" si="52"/>
         <v>14</v>
       </c>
       <c r="J125">
@@ -14630,15 +14630,15 @@
         <v>-2</v>
       </c>
       <c r="L125" s="4">
-        <f>SUM(G125:K125)</f>
+        <f t="shared" si="53"/>
         <v>14</v>
       </c>
       <c r="M125" s="8">
-        <f>L125-F125</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N125" s="8" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="O125" s="32"/>
@@ -14710,20 +14710,20 @@
       </c>
       <c r="C130" s="8"/>
       <c r="F130" s="4">
-        <f>SUM(B130:E130)</f>
+        <f t="shared" ref="F130:F135" si="57">SUM(B130:E130)</f>
         <v>0</v>
       </c>
       <c r="I130" s="8"/>
       <c r="L130" s="4">
-        <f>SUM(G130:K130)</f>
+        <f t="shared" ref="L130:L135" si="58">SUM(G130:K130)</f>
         <v>0</v>
       </c>
       <c r="M130" s="8">
-        <f>L130-F130</f>
+        <f t="shared" ref="M130:M135" si="59">L130-F130</f>
         <v>0</v>
       </c>
       <c r="N130" s="8" t="b">
-        <f t="shared" ref="N130:N132" si="27">IF(ABS(M130)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N130:N132" si="60">IF(ABS(M130)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O130" s="34"/>
@@ -14741,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="4">
-        <f>SUM(B131:E131)</f>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="G131">
@@ -14750,15 +14750,15 @@
       </c>
       <c r="I131" s="8"/>
       <c r="L131" s="4">
-        <f>SUM(G131:K131)</f>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="M131" s="8">
-        <f>L131-F131</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N131" s="8" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="O131" s="34"/>
@@ -14769,20 +14769,20 @@
       </c>
       <c r="C132" s="8"/>
       <c r="F132" s="4">
-        <f>SUM(B132:E132)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I132" s="8"/>
       <c r="L132" s="4">
-        <f>SUM(G132:K132)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M132" s="8">
-        <f>L132-F132</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N132" s="8" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="O132" s="34"/>
@@ -14796,7 +14796,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="4">
-        <f>SUM(B133:E133)</f>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="I133" s="8">
@@ -14804,11 +14804,11 @@
         <v>2</v>
       </c>
       <c r="L133" s="4">
-        <f>SUM(G133:K133)</f>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="M133" s="8">
-        <f>L133-F133</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N133" s="8" t="b">
@@ -14826,7 +14826,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="10">
-        <f>SUM(B134:E134)</f>
+        <f t="shared" si="57"/>
         <v>4</v>
       </c>
       <c r="I134">
@@ -14834,15 +14834,15 @@
         <v>4</v>
       </c>
       <c r="L134" s="4">
-        <f>SUM(G134:K134)</f>
+        <f t="shared" si="58"/>
         <v>4</v>
       </c>
       <c r="M134" s="8">
-        <f>L134-F134</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N134" s="8" t="b">
-        <f t="shared" ref="N134:N135" si="28">IF(ABS(M134)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N134:N135" si="61">IF(ABS(M134)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O134" s="34"/>
@@ -14860,19 +14860,19 @@
         <v>-1</v>
       </c>
       <c r="F135" s="10">
-        <f>SUM(B135:E135)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L135" s="4">
-        <f>SUM(G135:K135)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M135" s="8">
-        <f>L135-F135</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N135" s="8" t="b">
-        <f t="shared" si="28"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="O135" s="34"/>
@@ -14940,20 +14940,20 @@
       </c>
       <c r="C140" s="8"/>
       <c r="F140" s="4">
-        <f>SUM(B140:E140)</f>
+        <f t="shared" ref="F140:F145" si="62">SUM(B140:E140)</f>
         <v>0</v>
       </c>
       <c r="I140" s="8"/>
       <c r="L140" s="4">
-        <f>SUM(G140:K140)</f>
+        <f t="shared" ref="L140:L145" si="63">SUM(G140:K140)</f>
         <v>0</v>
       </c>
       <c r="M140" s="8">
-        <f>L140-F140</f>
+        <f t="shared" ref="M140:M145" si="64">L140-F140</f>
         <v>0</v>
       </c>
       <c r="N140" s="8" t="b">
-        <f t="shared" ref="N140:N142" si="29">IF(ABS(M140)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N140:N142" si="65">IF(ABS(M140)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O140" s="33"/>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="C141" s="8"/>
       <c r="F141" s="4">
-        <f>SUM(B141:E141)</f>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="G141">
@@ -14977,15 +14977,15 @@
       </c>
       <c r="I141" s="8"/>
       <c r="L141" s="4">
-        <f>SUM(G141:K141)</f>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="M141" s="8">
-        <f>L141-F141</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N141" s="8" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="O141" s="33"/>
@@ -14996,20 +14996,20 @@
       </c>
       <c r="C142" s="8"/>
       <c r="F142" s="4">
-        <f>SUM(B142:E142)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="I142" s="8"/>
       <c r="L142" s="4">
-        <f>SUM(G142:K142)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M142" s="8">
-        <f>L142-F142</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N142" s="8" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="O142" s="33"/>
@@ -15027,7 +15027,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="4">
-        <f>SUM(B143:E143)</f>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="G143">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="I143" s="8"/>
       <c r="L143" s="4">
-        <f>SUM(G143:K143)</f>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="M143" s="8">
-        <f>L143-F143</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N143" s="8" t="b">
@@ -15054,19 +15054,19 @@
         <v>40</v>
       </c>
       <c r="F144" s="10">
-        <f>SUM(B144:E144)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L144" s="4">
-        <f>SUM(G144:K144)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M144" s="8">
-        <f>L144-F144</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N144" s="8" t="b">
-        <f t="shared" ref="N144:N145" si="30">IF(ABS(M144)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N144:N145" si="66">IF(ABS(M144)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O144" s="33"/>
@@ -15080,7 +15080,7 @@
         <v>-1</v>
       </c>
       <c r="F145" s="10">
-        <f>SUM(B145:E145)</f>
+        <f t="shared" si="62"/>
         <v>-1</v>
       </c>
       <c r="G145">
@@ -15088,15 +15088,15 @@
         <v>-1</v>
       </c>
       <c r="L145" s="4">
-        <f>SUM(G145:K145)</f>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="M145" s="8">
-        <f>L145-F145</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N145" s="8" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="O145" s="33"/>
@@ -15189,7 +15189,7 @@
         <v>2</v>
       </c>
       <c r="F150" s="4">
-        <f>SUM(B150:E150)</f>
+        <f t="shared" ref="F150:F155" si="67">SUM(B150:E150)</f>
         <v>2</v>
       </c>
       <c r="H150">
@@ -15198,15 +15198,15 @@
       </c>
       <c r="I150" s="8"/>
       <c r="L150" s="4">
-        <f>SUM(G150:K150)</f>
+        <f t="shared" ref="L150:L155" si="68">SUM(G150:K150)</f>
         <v>2</v>
       </c>
       <c r="M150" s="8">
-        <f>L150-F150</f>
+        <f t="shared" ref="M150:M155" si="69">L150-F150</f>
         <v>0</v>
       </c>
       <c r="N150" s="8" t="b">
-        <f t="shared" ref="N150:N152" si="31">IF(ABS(M150)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N150:N152" si="70">IF(ABS(M150)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O150" s="33"/>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="C151" s="8"/>
       <c r="F151" s="4">
-        <f>SUM(B151:E151)</f>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="G151">
@@ -15230,15 +15230,15 @@
       </c>
       <c r="I151" s="8"/>
       <c r="L151" s="4">
-        <f>SUM(G151:K151)</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="M151" s="8">
-        <f>L151-F151</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N151" s="8" t="b">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="O151" s="33"/>
@@ -15249,20 +15249,20 @@
       </c>
       <c r="C152" s="8"/>
       <c r="F152" s="4">
-        <f>SUM(B152:E152)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I152" s="8"/>
       <c r="L152" s="4">
-        <f>SUM(G152:K152)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M152" s="8">
-        <f>L152-F152</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N152" s="8" t="b">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="O152" s="33"/>
@@ -15280,7 +15280,7 @@
         <v>6</v>
       </c>
       <c r="F153" s="4">
-        <f>SUM(B153:E153)</f>
+        <f t="shared" si="67"/>
         <v>10</v>
       </c>
       <c r="G153">
@@ -15296,11 +15296,11 @@
         <v>3</v>
       </c>
       <c r="L153" s="4">
-        <f>SUM(G153:K153)</f>
+        <f t="shared" si="68"/>
         <v>10</v>
       </c>
       <c r="M153" s="8">
-        <f>L153-F153</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N153" s="8" t="b">
@@ -15322,7 +15322,7 @@
         <v>2</v>
       </c>
       <c r="F154" s="10">
-        <f>SUM(B154:E154)</f>
+        <f t="shared" si="67"/>
         <v>6</v>
       </c>
       <c r="I154">
@@ -15330,15 +15330,15 @@
         <v>6</v>
       </c>
       <c r="L154" s="4">
-        <f>SUM(G154:K154)</f>
+        <f t="shared" si="68"/>
         <v>6</v>
       </c>
       <c r="M154" s="8">
-        <f>L154-F154</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N154" s="8" t="b">
-        <f t="shared" ref="N154:N155" si="32">IF(ABS(M154)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N154:N155" si="71">IF(ABS(M154)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O154" s="33"/>
@@ -15356,7 +15356,7 @@
         <v>-2</v>
       </c>
       <c r="F155" s="10">
-        <f>SUM(B155:E155)</f>
+        <f t="shared" si="67"/>
         <v>-1</v>
       </c>
       <c r="G155">
@@ -15364,15 +15364,15 @@
         <v>-1</v>
       </c>
       <c r="L155" s="4">
-        <f>SUM(G155:K155)</f>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="M155" s="8">
-        <f>L155-F155</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N155" s="8" t="b">
-        <f t="shared" si="32"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="O155" s="33"/>
@@ -15447,7 +15447,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="4">
-        <f>SUM(B159:E159)</f>
+        <f t="shared" ref="F159:F164" si="72">SUM(B159:E159)</f>
         <v>2</v>
       </c>
       <c r="H159">
@@ -15456,15 +15456,15 @@
       </c>
       <c r="I159" s="8"/>
       <c r="L159" s="4">
-        <f>SUM(G159:K159)</f>
+        <f t="shared" ref="L159:L164" si="73">SUM(G159:K159)</f>
         <v>2</v>
       </c>
       <c r="M159" s="8">
-        <f>L159-F159</f>
+        <f t="shared" ref="M159:M164" si="74">L159-F159</f>
         <v>0</v>
       </c>
       <c r="N159" s="8" t="b">
-        <f t="shared" ref="N159:N161" si="33">IF(ABS(M159)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N159:N161" si="75">IF(ABS(M159)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O159" s="33"/>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="C160" s="8"/>
       <c r="F160" s="4">
-        <f>SUM(B160:E160)</f>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="G160">
@@ -15488,15 +15488,15 @@
       </c>
       <c r="I160" s="8"/>
       <c r="L160" s="4">
-        <f>SUM(G160:K160)</f>
+        <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="M160" s="8">
-        <f>L160-F160</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N160" s="8" t="b">
-        <f t="shared" si="33"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="O160" s="33"/>
@@ -15507,20 +15507,20 @@
       </c>
       <c r="C161" s="8"/>
       <c r="F161" s="4">
-        <f>SUM(B161:E161)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I161" s="8"/>
       <c r="L161" s="4">
-        <f>SUM(G161:K161)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M161" s="8">
-        <f>L161-F161</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N161" s="8" t="b">
-        <f t="shared" si="33"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="O161" s="33"/>
@@ -15538,7 +15538,7 @@
         <v>6</v>
       </c>
       <c r="F162" s="4">
-        <f>SUM(B162:E162)</f>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
       <c r="G162">
@@ -15554,11 +15554,11 @@
         <v>5</v>
       </c>
       <c r="L162" s="4">
-        <f>SUM(G162:K162)</f>
+        <f t="shared" si="73"/>
         <v>10</v>
       </c>
       <c r="M162" s="8">
-        <f>L162-F162</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N162" s="8" t="b">
@@ -15580,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="F163" s="10">
-        <f>SUM(B163:E163)</f>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
       <c r="I163">
@@ -15588,15 +15588,15 @@
         <v>10</v>
       </c>
       <c r="L163" s="4">
-        <f>SUM(G163:K163)</f>
+        <f t="shared" si="73"/>
         <v>10</v>
       </c>
       <c r="M163" s="8">
-        <f>L163-F163</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N163" s="8" t="b">
-        <f t="shared" ref="N163:N164" si="34">IF(ABS(M163)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N163:N164" si="76">IF(ABS(M163)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O163" s="33"/>
@@ -15614,19 +15614,19 @@
         <v>-2</v>
       </c>
       <c r="F164" s="10">
-        <f>SUM(B164:E164)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="L164" s="4">
-        <f>SUM(G164:K164)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M164" s="8">
-        <f>L164-F164</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N164" s="8" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="O164" s="33"/>
@@ -15701,7 +15701,7 @@
         <v>2</v>
       </c>
       <c r="F168" s="4">
-        <f>SUM(B168:E168)</f>
+        <f t="shared" ref="F168:F173" si="77">SUM(B168:E168)</f>
         <v>2</v>
       </c>
       <c r="H168">
@@ -15710,15 +15710,15 @@
       </c>
       <c r="I168" s="8"/>
       <c r="L168" s="4">
-        <f>SUM(G168:K168)</f>
+        <f t="shared" ref="L168:L173" si="78">SUM(G168:K168)</f>
         <v>2</v>
       </c>
       <c r="M168" s="8">
-        <f>L168-F168</f>
+        <f t="shared" ref="M168:M173" si="79">L168-F168</f>
         <v>0</v>
       </c>
       <c r="N168" s="8" t="b">
-        <f t="shared" ref="N168:N170" si="35">IF(ABS(M168)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N168:N170" si="80">IF(ABS(M168)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O168" s="33"/>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="C169" s="8"/>
       <c r="F169" s="4">
-        <f>SUM(B169:E169)</f>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="G169">
@@ -15742,15 +15742,15 @@
       </c>
       <c r="I169" s="8"/>
       <c r="L169" s="4">
-        <f>SUM(G169:K169)</f>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="M169" s="8">
-        <f>L169-F169</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N169" s="8" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="O169" s="33"/>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="C170" s="8"/>
       <c r="F170" s="4">
-        <f>SUM(B170:E170)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="I170" s="8"/>
       <c r="L170" s="4">
-        <f>SUM(G170:K170)</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M170" s="8">
-        <f>L170-F170</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N170" s="8" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="O170" s="33"/>
@@ -15792,7 +15792,7 @@
         <v>6</v>
       </c>
       <c r="F171" s="4">
-        <f>SUM(B171:E171)</f>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="G171">
@@ -15808,11 +15808,11 @@
         <v>3</v>
       </c>
       <c r="L171" s="4">
-        <f>SUM(G171:K171)</f>
+        <f t="shared" si="78"/>
         <v>9</v>
       </c>
       <c r="M171" s="8">
-        <f>L171-F171</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N171" s="8" t="b">
@@ -15834,7 +15834,7 @@
         <v>2</v>
       </c>
       <c r="F172" s="10">
-        <f>SUM(B172:E172)</f>
+        <f t="shared" si="77"/>
         <v>6</v>
       </c>
       <c r="I172">
@@ -15842,15 +15842,15 @@
         <v>6</v>
       </c>
       <c r="L172" s="4">
-        <f>SUM(G172:K172)</f>
+        <f t="shared" si="78"/>
         <v>6</v>
       </c>
       <c r="M172" s="8">
-        <f>L172-F172</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N172" s="8" t="b">
-        <f t="shared" ref="N172:N173" si="36">IF(ABS(M172)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N172:N173" si="81">IF(ABS(M172)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O172" s="33"/>
@@ -15868,7 +15868,7 @@
         <v>-2</v>
       </c>
       <c r="F173" s="10">
-        <f>SUM(B173:E173)</f>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="G173">
@@ -15876,113 +15876,113 @@
         <v>-1</v>
       </c>
       <c r="L173" s="4">
-        <f>SUM(G173:K173)</f>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="M173" s="8">
-        <f>L173-F173</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N173" s="8" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="O173" s="33"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N47 N1:N34 N60 N73 N86:N87 N113 N126:N136 N146 N156:N1048576">
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N46">
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48:N59">
-    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N61:N72">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74:N85">
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="22" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N100">
-    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N88:N99">
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N101:N112">
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N114:N125">
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N137:N145">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N137)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N147:N155">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",N147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",N147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI12:AI24">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",AI12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",AI12)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tables/23-sediment_biogeochemistry/OMStoichiometry.xlsx
+++ b/tables/23-sediment_biogeochemistry/OMStoichiometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5F3F1-83EF-4EE7-8B69-3EA0EAA56C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE1F57-9A92-4F22-8E5B-656D712211E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" xr2:uid="{4AE333D1-87D7-4389-9651-14106B1B2BA6}"/>
+    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" xr2:uid="{4AE333D1-87D7-4389-9651-14106B1B2BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Luff (2)" sheetId="4" r:id="rId1"/>
@@ -3771,10 +3771,10 @@
   <dimension ref="A2:AJ173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG17" sqref="AG17"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,11 +4427,11 @@
       </c>
       <c r="AD15" s="13"/>
       <c r="AG15" s="11">
-        <f t="shared" ref="AG15:AG23" ca="1" si="7">SUM(Z15:XF15)</f>
+        <f>SUM(Z15:AF15)</f>
         <v>0</v>
       </c>
       <c r="AH15" s="8">
-        <f t="shared" ref="AH15:AH23" si="8">XG15-Y15</f>
+        <f t="shared" ref="AH15:AH23" si="7">XG15-Y15</f>
         <v>-86</v>
       </c>
       <c r="AI15" s="8" t="b">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="T16" s="8"/>
       <c r="Y16" s="11">
-        <f t="shared" ref="Y16:Y17" si="9">SUM(R16:X16)</f>
+        <f t="shared" ref="Y16:Y17" si="8">SUM(R16:X16)</f>
         <v>416</v>
       </c>
       <c r="Z16" s="8">
@@ -4511,7 +4511,7 @@
         <v>400</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-416</v>
       </c>
       <c r="AI16" s="8" t="b">
@@ -4563,7 +4563,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="Y17" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC17" s="8"/>
@@ -4573,11 +4573,11 @@
         <v>0</v>
       </c>
       <c r="AG17" s="11">
-        <f t="shared" ca="1" si="7"/>
+        <f>SUM(Z17:AF17)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="AI17" s="8" t="b">
@@ -4663,11 +4663,11 @@
         <v>0</v>
       </c>
       <c r="AG18" s="11">
-        <f t="shared" ca="1" si="7"/>
+        <f>SUM(Z18:AF18)</f>
         <v>0</v>
       </c>
       <c r="AH18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-262</v>
       </c>
       <c r="AI18" s="8" t="b">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="T19" s="13"/>
       <c r="Y19" s="12">
-        <f t="shared" ref="Y19:Y23" si="10">SUM(R19:X19)</f>
+        <f t="shared" ref="Y19:Y23" si="9">SUM(R19:X19)</f>
         <v>200</v>
       </c>
       <c r="AC19" s="13"/>
@@ -4722,11 +4722,11 @@
         <v>0</v>
       </c>
       <c r="AG19" s="11">
-        <f t="shared" ca="1" si="7"/>
+        <f>SUM(Z19:AF19)</f>
         <v>0</v>
       </c>
       <c r="AH19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-200</v>
       </c>
       <c r="AI19" s="8"/>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="T20" s="13"/>
       <c r="Y20" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="AC20" s="13"/>
@@ -4784,7 +4784,7 @@
         <v>64</v>
       </c>
       <c r="AH20" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-48</v>
       </c>
       <c r="AI20" s="8"/>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="T21" s="13"/>
       <c r="Y21" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC21" s="13"/>
@@ -4838,11 +4838,11 @@
         <v>0</v>
       </c>
       <c r="AG21" s="11">
-        <f t="shared" ca="1" si="7"/>
+        <f>SUM(Z21:AF21)</f>
         <v>0</v>
       </c>
       <c r="AH21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="AI21" s="8"/>
@@ -4869,15 +4869,15 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" ref="I22:K22" si="11">I19+I20+I21</f>
+        <f t="shared" ref="I22:K22" si="10">I19+I20+I21</f>
         <v>172</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L22" s="11">
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>237</v>
       </c>
       <c r="AC22" s="8">
@@ -4929,11 +4929,11 @@
         <v>0</v>
       </c>
       <c r="AG22" s="11">
-        <f t="shared" ca="1" si="7"/>
+        <f>SUM(Z22:AF22)</f>
         <v>0</v>
       </c>
       <c r="AH22" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-237</v>
       </c>
       <c r="AI22" s="8" t="b">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AC23" s="8"/>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="AG23" s="11">
-        <f t="shared" ca="1" si="7"/>
+        <f>SUM(Z23:AF23)</f>
         <v>0</v>
       </c>
       <c r="AH23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-14</v>
       </c>
       <c r="AI23" s="8" t="b">
@@ -5162,7 +5162,7 @@
         <v>-94</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" ref="F28:F33" si="12">SUM(B28:E28)</f>
+        <f t="shared" ref="F28:F33" si="11">SUM(B28:E28)</f>
         <v>6</v>
       </c>
       <c r="H28" s="8">
@@ -5171,11 +5171,11 @@
       </c>
       <c r="I28" s="13"/>
       <c r="L28" s="4">
-        <f t="shared" ref="L28:L33" si="13">SUM(G28:K28)</f>
+        <f t="shared" ref="L28:L33" si="12">SUM(G28:K28)</f>
         <v>6</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" ref="M28:M33" si="14">L28-F28</f>
+        <f t="shared" ref="M28:M33" si="13">L28-F28</f>
         <v>0</v>
       </c>
       <c r="N28" s="8" t="b">
@@ -5197,7 +5197,7 @@
         <v>80</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="G29">
@@ -5211,11 +5211,11 @@
         <v>16</v>
       </c>
       <c r="L29" s="4">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="M29" s="8">
         <f t="shared" si="13"/>
-        <v>96</v>
-      </c>
-      <c r="M29" s="8">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N29" s="8" t="b">
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H30" s="8"/>
@@ -5243,11 +5243,11 @@
         <v>1</v>
       </c>
       <c r="L30" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M30" s="8">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N30" s="8" t="b">
@@ -5273,7 +5273,7 @@
         <v>-282</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="H31" s="8">
@@ -5289,11 +5289,11 @@
         <v>4</v>
       </c>
       <c r="L31" s="4">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="M31" s="8">
         <f t="shared" si="13"/>
-        <v>62</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="8" t="b">
@@ -5315,7 +5315,7 @@
         <v>-94</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>157</v>
       </c>
       <c r="H32" s="13"/>
@@ -5332,11 +5332,11 @@
         <v>1</v>
       </c>
       <c r="L32" s="4">
+        <f t="shared" si="12"/>
+        <v>157</v>
+      </c>
+      <c r="M32" s="8">
         <f t="shared" si="13"/>
-        <v>157</v>
-      </c>
-      <c r="M32" s="8">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N32" s="8" t="b">
@@ -5358,7 +5358,7 @@
         <v>94</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="J33">
@@ -5370,11 +5370,11 @@
         <v>-1</v>
       </c>
       <c r="L33" s="4">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="M33" s="8">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="M33" s="8">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N33" s="8" t="b">
@@ -5507,7 +5507,7 @@
         <v>-14</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" ref="F38:F46" si="15">SUM(B38:E38)</f>
+        <f t="shared" ref="F38:F46" si="14">SUM(B38:E38)</f>
         <v>86</v>
       </c>
       <c r="H38" s="8">
@@ -5516,11 +5516,11 @@
       </c>
       <c r="I38" s="13"/>
       <c r="L38" s="4">
-        <f t="shared" ref="L38:L46" si="16">SUM(G38:K38)</f>
+        <f t="shared" ref="L38:L46" si="15">SUM(G38:K38)</f>
         <v>86</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" ref="M38:M46" si="17">L38-F38</f>
+        <f t="shared" ref="M38:M46" si="16">L38-F38</f>
         <v>0</v>
       </c>
       <c r="N38" s="8" t="b">
@@ -5542,7 +5542,7 @@
         <v>200</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>216</v>
       </c>
       <c r="G39">
@@ -5556,11 +5556,11 @@
         <v>16</v>
       </c>
       <c r="L39" s="4">
+        <f t="shared" si="15"/>
+        <v>216</v>
+      </c>
+      <c r="M39" s="8">
         <f t="shared" si="16"/>
-        <v>216</v>
-      </c>
-      <c r="M39" s="8">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N39" s="8" t="b">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="C40" s="8"/>
       <c r="F40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H40" s="8"/>
@@ -5589,11 +5589,11 @@
         <v>1</v>
       </c>
       <c r="L40" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="M40" s="8">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N40" s="8" t="b">
@@ -5619,7 +5619,7 @@
         <v>-42</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>662</v>
       </c>
       <c r="G41">
@@ -5639,11 +5639,11 @@
         <v>4</v>
       </c>
       <c r="L41" s="4">
+        <f t="shared" si="15"/>
+        <v>662</v>
+      </c>
+      <c r="M41" s="8">
         <f t="shared" si="16"/>
-        <v>662</v>
-      </c>
-      <c r="M41" s="8">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N41" s="8" t="b">
@@ -5663,7 +5663,7 @@
       <c r="C42" s="22"/>
       <c r="D42" s="23"/>
       <c r="F42" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="H42" s="13"/>
@@ -5680,11 +5680,11 @@
         <v>1</v>
       </c>
       <c r="L42" s="25">
+        <f t="shared" si="15"/>
+        <v>237</v>
+      </c>
+      <c r="M42" s="8">
         <f t="shared" si="16"/>
-        <v>237</v>
-      </c>
-      <c r="M42" s="8">
-        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="N42" s="8"/>
@@ -5701,18 +5701,18 @@
       <c r="C43" s="22"/>
       <c r="D43" s="23"/>
       <c r="F43" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="8">
-        <f t="shared" si="17"/>
         <v>-48</v>
       </c>
       <c r="N43" s="8"/>
@@ -5729,18 +5729,18 @@
       <c r="C44" s="22"/>
       <c r="D44" s="23"/>
       <c r="F44" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="8">
-        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
       <c r="N44" s="8"/>
@@ -5759,7 +5759,7 @@
         <v>-14</v>
       </c>
       <c r="F45" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>237</v>
       </c>
       <c r="I45">
@@ -5775,11 +5775,11 @@
         <v>1</v>
       </c>
       <c r="L45" s="4">
+        <f t="shared" si="15"/>
+        <v>237</v>
+      </c>
+      <c r="M45" s="8">
         <f t="shared" si="16"/>
-        <v>237</v>
-      </c>
-      <c r="M45" s="8">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N45" s="8" t="b">
@@ -5804,7 +5804,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-186</v>
       </c>
       <c r="G46">
@@ -5820,11 +5820,11 @@
         <v>-2</v>
       </c>
       <c r="L46" s="4">
+        <f t="shared" si="15"/>
+        <v>-186</v>
+      </c>
+      <c r="M46" s="8">
         <f t="shared" si="16"/>
-        <v>-186</v>
-      </c>
-      <c r="M46" s="8">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N46" s="8" t="b">
@@ -5957,7 +5957,7 @@
         <v>-147.33333333333331</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" ref="F51:F59" si="18">SUM(B51:E51)</f>
+        <f t="shared" ref="F51:F59" si="17">SUM(B51:E51)</f>
         <v>-47.333333333333314</v>
       </c>
       <c r="G51" s="8"/>
@@ -5967,11 +5967,11 @@
       </c>
       <c r="I51" s="13"/>
       <c r="L51" s="11">
-        <f t="shared" ref="L51:L59" si="19">SUM(G51:K51)</f>
+        <f t="shared" ref="L51:L59" si="18">SUM(G51:K51)</f>
         <v>-47.333333333333314</v>
       </c>
       <c r="M51" s="8">
-        <f t="shared" ref="M51:M59" si="20">L51-F51</f>
+        <f t="shared" ref="M51:M59" si="19">L51-F51</f>
         <v>0</v>
       </c>
       <c r="N51" s="8" t="b">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="D52" s="8"/>
       <c r="F52" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>82.666666666666657</v>
       </c>
       <c r="G52" s="8">
@@ -6008,11 +6008,11 @@
         <v>16</v>
       </c>
       <c r="L52" s="11">
+        <f t="shared" si="18"/>
+        <v>82.666666666666657</v>
+      </c>
+      <c r="M52" s="8">
         <f t="shared" si="19"/>
-        <v>82.666666666666657</v>
-      </c>
-      <c r="M52" s="8">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N52" s="8" t="b">
@@ -6032,7 +6032,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G53" s="8"/>
@@ -6043,11 +6043,11 @@
         <v>1</v>
       </c>
       <c r="L53" s="11">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="8">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="M53" s="8">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N53" s="8" t="b">
@@ -6073,7 +6073,7 @@
         <v>-441.99999999999994</v>
       </c>
       <c r="F54" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-204.66666666666663</v>
       </c>
       <c r="G54" s="8"/>
@@ -6090,11 +6090,11 @@
         <v>4</v>
       </c>
       <c r="L54" s="11">
+        <f t="shared" si="18"/>
+        <v>-204.66666666666663</v>
+      </c>
+      <c r="M54" s="8">
         <f t="shared" si="19"/>
-        <v>-204.66666666666663</v>
-      </c>
-      <c r="M54" s="8">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N54" s="8" t="b">
@@ -6114,7 +6114,7 @@
       <c r="C55" s="22"/>
       <c r="D55" s="35"/>
       <c r="F55" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>200</v>
       </c>
       <c r="G55" s="8"/>
@@ -6132,11 +6132,11 @@
         <v>1</v>
       </c>
       <c r="L55" s="29">
+        <f t="shared" si="18"/>
+        <v>-163</v>
+      </c>
+      <c r="M55" s="8">
         <f t="shared" si="19"/>
-        <v>-163</v>
-      </c>
-      <c r="M55" s="8">
-        <f t="shared" si="20"/>
         <v>-363</v>
       </c>
       <c r="N55" s="8"/>
@@ -6153,7 +6153,7 @@
       <c r="C56" s="22"/>
       <c r="D56" s="35"/>
       <c r="F56" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="G56" s="8"/>
@@ -6161,11 +6161,11 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="8">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="8">
-        <f t="shared" si="20"/>
         <v>-48</v>
       </c>
       <c r="N56" s="8"/>
@@ -6182,7 +6182,7 @@
       <c r="C57" s="22"/>
       <c r="D57" s="35"/>
       <c r="F57" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="G57" s="8"/>
@@ -6190,11 +6190,11 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="8">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="8">
-        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
       <c r="N57" s="8"/>
@@ -6213,7 +6213,7 @@
         <v>-147.33333333333331</v>
       </c>
       <c r="F58" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>103.66666666666669</v>
       </c>
       <c r="G58" s="8">
@@ -6233,11 +6233,11 @@
         <v>1</v>
       </c>
       <c r="L58" s="11">
+        <f t="shared" si="18"/>
+        <v>103.66666666666663</v>
+      </c>
+      <c r="M58" s="8">
         <f t="shared" si="19"/>
-        <v>103.66666666666663</v>
-      </c>
-      <c r="M58" s="8">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N58" s="8" t="b">
@@ -6262,7 +6262,7 @@
         <v>147.33333333333331</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>80.666666666666657</v>
       </c>
       <c r="G59" s="8">
@@ -6278,11 +6278,11 @@
         <v>-2</v>
       </c>
       <c r="L59" s="11">
+        <f t="shared" si="18"/>
+        <v>80.666666666666657</v>
+      </c>
+      <c r="M59" s="8">
         <f t="shared" si="19"/>
-        <v>80.666666666666657</v>
-      </c>
-      <c r="M59" s="8">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N59" s="8" t="b">
@@ -6416,7 +6416,7 @@
         <v>-214</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" ref="F64:F72" si="21">SUM(B64:E64)</f>
+        <f t="shared" ref="F64:F72" si="20">SUM(B64:E64)</f>
         <v>-114</v>
       </c>
       <c r="H64" s="8">
@@ -6425,11 +6425,11 @@
       </c>
       <c r="I64" s="13"/>
       <c r="L64" s="4">
-        <f t="shared" ref="L64:L72" si="22">SUM(G64:K64)</f>
+        <f t="shared" ref="L64:L72" si="21">SUM(G64:K64)</f>
         <v>-114</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M72" si="23">L64-F64</f>
+        <f t="shared" ref="M64:M72" si="22">L64-F64</f>
         <v>0</v>
       </c>
       <c r="N64" s="8" t="b">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="D65" s="8"/>
       <c r="F65" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>216</v>
       </c>
       <c r="G65">
@@ -6466,11 +6466,11 @@
         <v>16</v>
       </c>
       <c r="L65" s="4">
+        <f t="shared" si="21"/>
+        <v>216</v>
+      </c>
+      <c r="M65" s="8">
         <f t="shared" si="22"/>
-        <v>216</v>
-      </c>
-      <c r="M65" s="8">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N65" s="8" t="b">
@@ -6490,7 +6490,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="F66" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="H66" s="8"/>
@@ -6500,11 +6500,11 @@
         <v>1</v>
       </c>
       <c r="L66" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="M66" s="8">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="M66" s="8">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N66" s="8" t="b">
@@ -6530,7 +6530,7 @@
         <v>-642</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-138</v>
       </c>
       <c r="G67">
@@ -6550,11 +6550,11 @@
         <v>4</v>
       </c>
       <c r="L67" s="4">
+        <f t="shared" si="21"/>
+        <v>-138</v>
+      </c>
+      <c r="M67" s="8">
         <f t="shared" si="22"/>
-        <v>-138</v>
-      </c>
-      <c r="M67" s="8">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N67" s="8" t="b">
@@ -6574,7 +6574,7 @@
       <c r="C68" s="22"/>
       <c r="D68" s="35"/>
       <c r="F68" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
       <c r="H68" s="13"/>
@@ -6591,11 +6591,11 @@
         <v>1</v>
       </c>
       <c r="L68" s="25">
+        <f t="shared" si="21"/>
+        <v>37</v>
+      </c>
+      <c r="M68" s="8">
         <f t="shared" si="22"/>
-        <v>37</v>
-      </c>
-      <c r="M68" s="8">
-        <f t="shared" si="23"/>
         <v>-163</v>
       </c>
       <c r="N68" s="8"/>
@@ -6612,18 +6612,18 @@
       <c r="C69" s="22"/>
       <c r="D69" s="35"/>
       <c r="F69" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="8">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="8">
-        <f t="shared" si="23"/>
         <v>-48</v>
       </c>
       <c r="N69" s="8"/>
@@ -6640,18 +6640,18 @@
       <c r="C70" s="22"/>
       <c r="D70" s="35"/>
       <c r="F70" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
       <c r="L70" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="8">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="8">
-        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="N70" s="8"/>
@@ -6670,7 +6670,7 @@
         <v>-214</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="I71">
@@ -6686,11 +6686,11 @@
         <v>1</v>
       </c>
       <c r="L71" s="4">
+        <f t="shared" si="21"/>
+        <v>37</v>
+      </c>
+      <c r="M71" s="8">
         <f t="shared" si="22"/>
-        <v>37</v>
-      </c>
-      <c r="M71" s="8">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N71" s="8" t="b">
@@ -6715,7 +6715,7 @@
         <v>214</v>
       </c>
       <c r="F72" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="G72">
@@ -6731,11 +6731,11 @@
         <v>-2</v>
       </c>
       <c r="L72" s="4">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="M72" s="8">
         <f t="shared" si="22"/>
-        <v>14</v>
-      </c>
-      <c r="M72" s="8">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N72" s="8" t="b">
@@ -6870,7 +6870,7 @@
         <v>314</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" ref="F77:F85" si="24">SUM(B77:E77)</f>
+        <f t="shared" ref="F77:F85" si="23">SUM(B77:E77)</f>
         <v>414</v>
       </c>
       <c r="H77" s="8">
@@ -6879,11 +6879,11 @@
       </c>
       <c r="I77" s="13"/>
       <c r="L77" s="4">
-        <f t="shared" ref="L77:L85" si="25">SUM(G77:K77)</f>
+        <f t="shared" ref="L77:L85" si="24">SUM(G77:K77)</f>
         <v>414</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" ref="M77:M85" si="26">L77-F77</f>
+        <f t="shared" ref="M77:M85" si="25">L77-F77</f>
         <v>0</v>
       </c>
       <c r="N77" s="8" t="b">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C78" s="8"/>
       <c r="F78" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="H78" s="8"/>
@@ -6912,11 +6912,11 @@
         <v>16</v>
       </c>
       <c r="L78" s="4">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="M78" s="8">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="M78" s="8">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N78" s="8" t="b">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="C79" s="8"/>
       <c r="F79" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H79" s="8"/>
@@ -6945,11 +6945,11 @@
         <v>1</v>
       </c>
       <c r="L79" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M79" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="M79" s="8">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N79" s="8" t="b">
@@ -6979,7 +6979,7 @@
         <v>628</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1246</v>
       </c>
       <c r="H80" s="8">
@@ -6992,11 +6992,11 @@
         <v>4</v>
       </c>
       <c r="L80" s="4">
+        <f t="shared" si="24"/>
+        <v>1246</v>
+      </c>
+      <c r="M80" s="8">
         <f t="shared" si="25"/>
-        <v>1246</v>
-      </c>
-      <c r="M80" s="8">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N80" s="8" t="b">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C81" s="22"/>
       <c r="F81" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>200</v>
       </c>
       <c r="H81" s="13"/>
@@ -7029,11 +7029,11 @@
         <v>1</v>
       </c>
       <c r="L81" s="25">
+        <f t="shared" si="24"/>
+        <v>65</v>
+      </c>
+      <c r="M81" s="8">
         <f t="shared" si="25"/>
-        <v>65</v>
-      </c>
-      <c r="M81" s="8">
-        <f t="shared" si="26"/>
         <v>-135</v>
       </c>
       <c r="N81" s="8"/>
@@ -7049,18 +7049,18 @@
       </c>
       <c r="C82" s="22"/>
       <c r="F82" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>48</v>
       </c>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="8">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="8">
-        <f t="shared" si="26"/>
         <v>-48</v>
       </c>
       <c r="N82" s="8"/>
@@ -7076,18 +7076,18 @@
       </c>
       <c r="C83" s="22"/>
       <c r="F83" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="8">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="8">
-        <f t="shared" si="26"/>
         <v>-3</v>
       </c>
       <c r="N83" s="8"/>
@@ -7106,7 +7106,7 @@
         <v>228</v>
       </c>
       <c r="F84" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>479</v>
       </c>
       <c r="H84">
@@ -7122,11 +7122,11 @@
         <v>1</v>
       </c>
       <c r="L84" s="4">
+        <f t="shared" si="24"/>
+        <v>479</v>
+      </c>
+      <c r="M84" s="8">
         <f t="shared" si="25"/>
-        <v>479</v>
-      </c>
-      <c r="M84" s="8">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N84" s="8" t="b">
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G85">
@@ -7167,11 +7167,11 @@
         <v>-2</v>
       </c>
       <c r="L85" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="8">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="8">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N85" s="8" t="b">
@@ -7309,7 +7309,7 @@
         <v>714</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" ref="F91:F99" si="27">SUM(B91:E91)</f>
+        <f t="shared" ref="F91:F99" si="26">SUM(B91:E91)</f>
         <v>814</v>
       </c>
       <c r="H91" s="8">
@@ -7318,11 +7318,11 @@
       </c>
       <c r="I91" s="13"/>
       <c r="L91" s="4">
-        <f t="shared" ref="L91:L99" si="28">SUM(G91:K91)</f>
+        <f t="shared" ref="L91:L99" si="27">SUM(G91:K91)</f>
         <v>814</v>
       </c>
       <c r="M91" s="8">
-        <f t="shared" ref="M91:M99" si="29">L91-F91</f>
+        <f t="shared" ref="M91:M99" si="28">L91-F91</f>
         <v>0</v>
       </c>
       <c r="N91" s="8" t="b">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="C92" s="8"/>
       <c r="F92" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="H92" s="8"/>
@@ -7351,11 +7351,11 @@
         <v>16</v>
       </c>
       <c r="L92" s="4">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="M92" s="8">
         <f t="shared" si="28"/>
-        <v>16</v>
-      </c>
-      <c r="M92" s="8">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N92" s="8" t="b">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="C93" s="8"/>
       <c r="F93" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="H93" s="8"/>
@@ -7384,11 +7384,11 @@
         <v>1</v>
       </c>
       <c r="L93" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="M93" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="M93" s="8">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N93" s="8" t="b">
@@ -7418,7 +7418,7 @@
         <v>1428</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2446</v>
       </c>
       <c r="H94" s="8">
@@ -7431,11 +7431,11 @@
         <v>4</v>
       </c>
       <c r="L94" s="4">
+        <f t="shared" si="27"/>
+        <v>2446</v>
+      </c>
+      <c r="M94" s="8">
         <f t="shared" si="28"/>
-        <v>2446</v>
-      </c>
-      <c r="M94" s="8">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N94" s="8" t="b">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="C95" s="22"/>
       <c r="F95" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>200</v>
       </c>
       <c r="H95" s="13"/>
@@ -7468,11 +7468,11 @@
         <v>1</v>
       </c>
       <c r="L95" s="25">
+        <f t="shared" si="27"/>
+        <v>65</v>
+      </c>
+      <c r="M95" s="8">
         <f t="shared" si="28"/>
-        <v>65</v>
-      </c>
-      <c r="M95" s="8">
-        <f t="shared" si="29"/>
         <v>-135</v>
       </c>
       <c r="N95" s="8"/>
@@ -7488,18 +7488,18 @@
       </c>
       <c r="C96" s="22"/>
       <c r="F96" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>48</v>
       </c>
       <c r="I96" s="23"/>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="8">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="8">
-        <f t="shared" si="29"/>
         <v>-48</v>
       </c>
       <c r="N96" s="8"/>
@@ -7515,18 +7515,18 @@
       </c>
       <c r="C97" s="22"/>
       <c r="F97" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="I97" s="23"/>
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
       <c r="L97" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="8">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="8">
-        <f t="shared" si="29"/>
         <v>-3</v>
       </c>
       <c r="N97" s="8"/>
@@ -7549,7 +7549,7 @@
         <v>228</v>
       </c>
       <c r="F98" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>879</v>
       </c>
       <c r="H98">
@@ -7565,11 +7565,11 @@
         <v>1</v>
       </c>
       <c r="L98" s="4">
+        <f t="shared" si="27"/>
+        <v>879</v>
+      </c>
+      <c r="M98" s="8">
         <f t="shared" si="28"/>
-        <v>879</v>
-      </c>
-      <c r="M98" s="8">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N98" s="8" t="b">
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G99">
@@ -7610,11 +7610,11 @@
         <v>-2</v>
       </c>
       <c r="L99" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="8">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="8">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N99" s="8" t="b">
@@ -7747,7 +7747,7 @@
         <v>-64</v>
       </c>
       <c r="F104" s="11">
-        <f t="shared" ref="F104:F112" si="30">SUM(B104:E104)</f>
+        <f t="shared" ref="F104:F112" si="29">SUM(B104:E104)</f>
         <v>36</v>
       </c>
       <c r="H104">
@@ -7756,11 +7756,11 @@
       </c>
       <c r="I104" s="8"/>
       <c r="L104" s="4">
-        <f t="shared" ref="L104:L112" si="31">SUM(G104:K104)</f>
+        <f t="shared" ref="L104:L112" si="30">SUM(G104:K104)</f>
         <v>36</v>
       </c>
       <c r="M104" s="8">
-        <f t="shared" ref="M104:M112" si="32">L104-F104</f>
+        <f t="shared" ref="M104:M112" si="31">L104-F104</f>
         <v>0</v>
       </c>
       <c r="N104" s="8" t="b">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="F105" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="I105" s="8"/>
@@ -7797,11 +7797,11 @@
         <v>16</v>
       </c>
       <c r="L105" s="4">
+        <f t="shared" si="30"/>
+        <v>16</v>
+      </c>
+      <c r="M105" s="8">
         <f t="shared" si="31"/>
-        <v>16</v>
-      </c>
-      <c r="M105" s="8">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N105" s="8" t="b">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="C106" s="8"/>
       <c r="F106" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I106" s="8"/>
@@ -7844,11 +7844,11 @@
         <v>1</v>
       </c>
       <c r="L106" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="M106" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="M106" s="8">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N106" s="8" t="b">
@@ -7889,7 +7889,7 @@
         <v>-192</v>
       </c>
       <c r="F107" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>112</v>
       </c>
       <c r="H107">
@@ -7905,11 +7905,11 @@
         <v>4</v>
       </c>
       <c r="L107" s="4">
+        <f t="shared" si="30"/>
+        <v>112</v>
+      </c>
+      <c r="M107" s="8">
         <f t="shared" si="31"/>
-        <v>112</v>
-      </c>
-      <c r="M107" s="8">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N107" s="8" t="b">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C108" s="22"/>
       <c r="F108" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>200</v>
       </c>
       <c r="I108" s="13"/>
@@ -7956,11 +7956,11 @@
         <v>1</v>
       </c>
       <c r="L108" s="25">
+        <f t="shared" si="30"/>
+        <v>65</v>
+      </c>
+      <c r="M108" s="8">
         <f t="shared" si="31"/>
-        <v>65</v>
-      </c>
-      <c r="M108" s="8">
-        <f t="shared" si="32"/>
         <v>-135</v>
       </c>
       <c r="N108" s="8"/>
@@ -7976,17 +7976,17 @@
       </c>
       <c r="C109" s="22"/>
       <c r="F109" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>48</v>
       </c>
       <c r="J109" s="23"/>
       <c r="K109" s="23"/>
       <c r="L109" s="25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="8">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="8">
-        <f t="shared" si="32"/>
         <v>-48</v>
       </c>
       <c r="N109" s="8"/>
@@ -8002,17 +8002,17 @@
       </c>
       <c r="C110" s="22"/>
       <c r="F110" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
       <c r="L110" s="25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="8">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="8">
-        <f t="shared" si="32"/>
         <v>-3</v>
       </c>
       <c r="N110" s="8"/>
@@ -8031,7 +8031,7 @@
         <v>-64</v>
       </c>
       <c r="F111" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>187</v>
       </c>
       <c r="G111">
@@ -8051,11 +8051,11 @@
         <v>1</v>
       </c>
       <c r="L111" s="4">
+        <f t="shared" si="30"/>
+        <v>187</v>
+      </c>
+      <c r="M111" s="8">
         <f t="shared" si="31"/>
-        <v>187</v>
-      </c>
-      <c r="M111" s="8">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N111" s="8" t="b">
@@ -8080,7 +8080,7 @@
         <v>64</v>
       </c>
       <c r="F112" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-36</v>
       </c>
       <c r="G112">
@@ -8096,11 +8096,11 @@
         <v>-2</v>
       </c>
       <c r="L112" s="4">
+        <f t="shared" si="30"/>
+        <v>-36</v>
+      </c>
+      <c r="M112" s="8">
         <f t="shared" si="31"/>
-        <v>-36</v>
-      </c>
-      <c r="M112" s="8">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N112" s="8" t="b">
@@ -8228,7 +8228,7 @@
         <v>-14</v>
       </c>
       <c r="F117" s="11">
-        <f t="shared" ref="F117:F125" si="33">SUM(B117:E117)</f>
+        <f t="shared" ref="F117:F125" si="32">SUM(B117:E117)</f>
         <v>86</v>
       </c>
       <c r="G117">
@@ -8241,11 +8241,11 @@
       </c>
       <c r="I117" s="8"/>
       <c r="L117" s="4">
-        <f t="shared" ref="L117:L125" si="34">SUM(G117:K117)</f>
+        <f t="shared" ref="L117:L125" si="33">SUM(G117:K117)</f>
         <v>86</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" ref="M117:M125" si="35">L117-F117</f>
+        <f t="shared" ref="M117:M125" si="34">L117-F117</f>
         <v>0</v>
       </c>
       <c r="N117" s="8" t="b">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C118" s="8"/>
       <c r="F118" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="I118" s="8"/>
@@ -8273,11 +8273,11 @@
         <v>16</v>
       </c>
       <c r="L118" s="4">
+        <f t="shared" si="33"/>
+        <v>16</v>
+      </c>
+      <c r="M118" s="8">
         <f t="shared" si="34"/>
-        <v>16</v>
-      </c>
-      <c r="M118" s="8">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N118" s="8" t="b">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="C119" s="8"/>
       <c r="F119" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I119" s="8"/>
@@ -8305,11 +8305,11 @@
         <v>1</v>
       </c>
       <c r="L119" s="4">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="M119" s="8">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="M119" s="8">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N119" s="8" t="b">
@@ -8336,7 +8336,7 @@
         <v>14</v>
       </c>
       <c r="F120" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>76</v>
       </c>
       <c r="H120">
@@ -8349,11 +8349,11 @@
         <v>4</v>
       </c>
       <c r="L120" s="4">
+        <f t="shared" si="33"/>
+        <v>76</v>
+      </c>
+      <c r="M120" s="8">
         <f t="shared" si="34"/>
-        <v>76</v>
-      </c>
-      <c r="M120" s="8">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N120" s="8" t="b">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C121" s="22"/>
       <c r="F121" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>200</v>
       </c>
       <c r="I121" s="13"/>
@@ -8385,11 +8385,11 @@
         <v>1</v>
       </c>
       <c r="L121" s="25">
+        <f t="shared" si="33"/>
+        <v>65</v>
+      </c>
+      <c r="M121" s="8">
         <f t="shared" si="34"/>
-        <v>65</v>
-      </c>
-      <c r="M121" s="8">
-        <f t="shared" si="35"/>
         <v>-135</v>
       </c>
       <c r="N121" s="8"/>
@@ -8405,17 +8405,17 @@
       </c>
       <c r="C122" s="22"/>
       <c r="F122" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>48</v>
       </c>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
       <c r="L122" s="25">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="8">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="M122" s="8">
-        <f t="shared" si="35"/>
         <v>-48</v>
       </c>
       <c r="N122" s="8"/>
@@ -8431,17 +8431,17 @@
       </c>
       <c r="C123" s="22"/>
       <c r="F123" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="25">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="8">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="M123" s="8">
-        <f t="shared" si="35"/>
         <v>-3</v>
       </c>
       <c r="N123" s="8"/>
@@ -8464,7 +8464,7 @@
         <v>28</v>
       </c>
       <c r="F124" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>265</v>
       </c>
       <c r="G124">
@@ -8480,11 +8480,11 @@
         <v>1</v>
       </c>
       <c r="L124" s="4">
+        <f t="shared" si="33"/>
+        <v>265</v>
+      </c>
+      <c r="M124" s="8">
         <f t="shared" si="34"/>
-        <v>265</v>
-      </c>
-      <c r="M124" s="8">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N124" s="8" t="b">
@@ -8505,7 +8505,7 @@
         <v>14</v>
       </c>
       <c r="F125" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="J125">
@@ -8517,11 +8517,11 @@
         <v>-2</v>
       </c>
       <c r="L125" s="4">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="M125" s="8">
         <f t="shared" si="34"/>
-        <v>14</v>
-      </c>
-      <c r="M125" s="8">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N125" s="8" t="b">
@@ -8597,20 +8597,20 @@
       </c>
       <c r="C130" s="8"/>
       <c r="F130" s="11">
-        <f t="shared" ref="F130:F135" si="36">SUM(B130:E130)</f>
+        <f t="shared" ref="F130:F135" si="35">SUM(B130:E130)</f>
         <v>0</v>
       </c>
       <c r="I130" s="8"/>
       <c r="L130" s="4">
-        <f t="shared" ref="L130:L135" si="37">SUM(G130:K130)</f>
+        <f t="shared" ref="L130:L135" si="36">SUM(G130:K130)</f>
         <v>0</v>
       </c>
       <c r="M130" s="8">
-        <f t="shared" ref="M130:M135" si="38">L130-F130</f>
+        <f t="shared" ref="M130:M135" si="37">L130-F130</f>
         <v>0</v>
       </c>
       <c r="N130" s="8" t="b">
-        <f t="shared" ref="N130:N135" si="39">IF(ABS(M130)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N130:N135" si="38">IF(ABS(M130)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O130" s="34"/>
@@ -8628,7 +8628,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="G131">
@@ -8637,15 +8637,15 @@
       </c>
       <c r="I131" s="8"/>
       <c r="L131" s="4">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="M131" s="8">
         <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="M131" s="8">
+        <v>0</v>
+      </c>
+      <c r="N131" s="8" t="b">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N131" s="8" t="b">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O131" s="34"/>
@@ -8656,20 +8656,20 @@
       </c>
       <c r="C132" s="8"/>
       <c r="F132" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I132" s="8"/>
       <c r="L132" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="8">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="M132" s="8">
+      <c r="N132" s="8" t="b">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N132" s="8" t="b">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O132" s="34"/>
@@ -8683,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="I133" s="8">
@@ -8691,15 +8691,15 @@
         <v>2</v>
       </c>
       <c r="L133" s="4">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="M133" s="8">
         <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="M133" s="8">
+        <v>0</v>
+      </c>
+      <c r="N133" s="8" t="b">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N133" s="8" t="b">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O133" s="34"/>
@@ -8713,7 +8713,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="I134">
@@ -8721,15 +8721,15 @@
         <v>4</v>
       </c>
       <c r="L134" s="4">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="M134" s="8">
         <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="M134" s="8">
+        <v>0</v>
+      </c>
+      <c r="N134" s="8" t="b">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N134" s="8" t="b">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O134" s="34"/>
@@ -8747,19 +8747,19 @@
         <v>-1</v>
       </c>
       <c r="F135" s="10">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="4">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="L135" s="4">
+      <c r="M135" s="8">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="M135" s="8">
+      <c r="N135" s="8" t="b">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N135" s="8" t="b">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O135" s="34"/>
@@ -8827,20 +8827,20 @@
       </c>
       <c r="C140" s="8"/>
       <c r="F140" s="11">
-        <f t="shared" ref="F140:F145" si="40">SUM(B140:E140)</f>
+        <f t="shared" ref="F140:F145" si="39">SUM(B140:E140)</f>
         <v>0</v>
       </c>
       <c r="I140" s="8"/>
       <c r="L140" s="4">
-        <f t="shared" ref="L140:L145" si="41">SUM(G140:K140)</f>
+        <f t="shared" ref="L140:L145" si="40">SUM(G140:K140)</f>
         <v>0</v>
       </c>
       <c r="M140" s="8">
-        <f t="shared" ref="M140:M145" si="42">L140-F140</f>
+        <f t="shared" ref="M140:M145" si="41">L140-F140</f>
         <v>0</v>
       </c>
       <c r="N140" s="8" t="b">
-        <f t="shared" ref="N140:N145" si="43">IF(ABS(M140)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N140:N145" si="42">IF(ABS(M140)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O140" s="33"/>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="C141" s="8"/>
       <c r="F141" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="G141">
@@ -8864,15 +8864,15 @@
       </c>
       <c r="I141" s="8"/>
       <c r="L141" s="4">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="M141" s="8">
         <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="M141" s="8">
+        <v>0</v>
+      </c>
+      <c r="N141" s="8" t="b">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="N141" s="8" t="b">
-        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O141" s="33"/>
@@ -8883,20 +8883,20 @@
       </c>
       <c r="C142" s="8"/>
       <c r="F142" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I142" s="8"/>
       <c r="L142" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M142" s="8">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M142" s="8">
+      <c r="N142" s="8" t="b">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="N142" s="8" t="b">
-        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O142" s="33"/>
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="G143">
@@ -8923,15 +8923,15 @@
       </c>
       <c r="I143" s="8"/>
       <c r="L143" s="4">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="M143" s="8">
         <f t="shared" si="41"/>
-        <v>3</v>
-      </c>
-      <c r="M143" s="8">
+        <v>0</v>
+      </c>
+      <c r="N143" s="8" t="b">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="N143" s="8" t="b">
-        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O143" s="33"/>
@@ -8941,19 +8941,19 @@
         <v>40</v>
       </c>
       <c r="F144" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L144" s="4">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L144" s="4">
+      <c r="M144" s="8">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M144" s="8">
+      <c r="N144" s="8" t="b">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="N144" s="8" t="b">
-        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O144" s="33"/>
@@ -8967,7 +8967,7 @@
         <v>-1</v>
       </c>
       <c r="F145" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="G145">
@@ -8975,15 +8975,15 @@
         <v>-1</v>
       </c>
       <c r="L145" s="4">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+      <c r="M145" s="8">
         <f t="shared" si="41"/>
-        <v>-1</v>
-      </c>
-      <c r="M145" s="8">
+        <v>0</v>
+      </c>
+      <c r="N145" s="8" t="b">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="N145" s="8" t="b">
-        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O145" s="33"/>
@@ -9076,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="F150" s="11">
-        <f t="shared" ref="F150:F155" si="44">SUM(B150:E150)</f>
+        <f t="shared" ref="F150:F155" si="43">SUM(B150:E150)</f>
         <v>2</v>
       </c>
       <c r="H150">
@@ -9085,15 +9085,15 @@
       </c>
       <c r="I150" s="8"/>
       <c r="L150" s="4">
-        <f t="shared" ref="L150:L155" si="45">SUM(G150:K150)</f>
+        <f t="shared" ref="L150:L155" si="44">SUM(G150:K150)</f>
         <v>2</v>
       </c>
       <c r="M150" s="8">
-        <f t="shared" ref="M150:M155" si="46">L150-F150</f>
+        <f t="shared" ref="M150:M155" si="45">L150-F150</f>
         <v>0</v>
       </c>
       <c r="N150" s="8" t="b">
-        <f t="shared" ref="N150:N155" si="47">IF(ABS(M150)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N150:N155" si="46">IF(ABS(M150)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O150" s="33"/>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="C151" s="8"/>
       <c r="F151" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="G151">
@@ -9117,15 +9117,15 @@
       </c>
       <c r="I151" s="8"/>
       <c r="L151" s="4">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="M151" s="8">
         <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="M151" s="8">
+        <v>0</v>
+      </c>
+      <c r="N151" s="8" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="N151" s="8" t="b">
-        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O151" s="33"/>
@@ -9136,20 +9136,20 @@
       </c>
       <c r="C152" s="8"/>
       <c r="F152" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I152" s="8"/>
       <c r="L152" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M152" s="8">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M152" s="8">
+      <c r="N152" s="8" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="N152" s="8" t="b">
-        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O152" s="33"/>
@@ -9167,7 +9167,7 @@
         <v>6</v>
       </c>
       <c r="F153" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="G153">
@@ -9183,15 +9183,15 @@
         <v>3</v>
       </c>
       <c r="L153" s="4">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="M153" s="8">
         <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="M153" s="8">
+        <v>0</v>
+      </c>
+      <c r="N153" s="8" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="N153" s="8" t="b">
-        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O153" s="33"/>
@@ -9209,7 +9209,7 @@
         <v>2</v>
       </c>
       <c r="F154" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
       <c r="I154">
@@ -9217,15 +9217,15 @@
         <v>6</v>
       </c>
       <c r="L154" s="4">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="M154" s="8">
         <f t="shared" si="45"/>
-        <v>6</v>
-      </c>
-      <c r="M154" s="8">
+        <v>0</v>
+      </c>
+      <c r="N154" s="8" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="N154" s="8" t="b">
-        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O154" s="33"/>
@@ -9243,7 +9243,7 @@
         <v>-2</v>
       </c>
       <c r="F155" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="G155">
@@ -9251,15 +9251,15 @@
         <v>-1</v>
       </c>
       <c r="L155" s="4">
+        <f t="shared" si="44"/>
+        <v>-1</v>
+      </c>
+      <c r="M155" s="8">
         <f t="shared" si="45"/>
-        <v>-1</v>
-      </c>
-      <c r="M155" s="8">
+        <v>0</v>
+      </c>
+      <c r="N155" s="8" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="N155" s="8" t="b">
-        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="O155" s="33"/>
@@ -9334,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="11">
-        <f t="shared" ref="F159:F164" si="48">SUM(B159:E159)</f>
+        <f t="shared" ref="F159:F164" si="47">SUM(B159:E159)</f>
         <v>2</v>
       </c>
       <c r="H159">
@@ -9343,15 +9343,15 @@
       </c>
       <c r="I159" s="8"/>
       <c r="L159" s="4">
-        <f t="shared" ref="L159:L164" si="49">SUM(G159:K159)</f>
+        <f t="shared" ref="L159:L164" si="48">SUM(G159:K159)</f>
         <v>2</v>
       </c>
       <c r="M159" s="8">
-        <f t="shared" ref="M159:M164" si="50">L159-F159</f>
+        <f t="shared" ref="M159:M164" si="49">L159-F159</f>
         <v>0</v>
       </c>
       <c r="N159" s="8" t="b">
-        <f t="shared" ref="N159:N164" si="51">IF(ABS(M159)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N159:N164" si="50">IF(ABS(M159)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O159" s="33"/>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="C160" s="8"/>
       <c r="F160" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="G160">
@@ -9375,15 +9375,15 @@
       </c>
       <c r="I160" s="8"/>
       <c r="L160" s="4">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="M160" s="8">
         <f t="shared" si="49"/>
-        <v>2</v>
-      </c>
-      <c r="M160" s="8">
+        <v>0</v>
+      </c>
+      <c r="N160" s="8" t="b">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N160" s="8" t="b">
-        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O160" s="33"/>
@@ -9394,20 +9394,20 @@
       </c>
       <c r="C161" s="8"/>
       <c r="F161" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I161" s="8"/>
       <c r="L161" s="4">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M161" s="8">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M161" s="8">
+      <c r="N161" s="8" t="b">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N161" s="8" t="b">
-        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O161" s="33"/>
@@ -9425,7 +9425,7 @@
         <v>6</v>
       </c>
       <c r="F162" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="G162">
@@ -9441,15 +9441,15 @@
         <v>5</v>
       </c>
       <c r="L162" s="4">
+        <f t="shared" si="48"/>
+        <v>10</v>
+      </c>
+      <c r="M162" s="8">
         <f t="shared" si="49"/>
-        <v>10</v>
-      </c>
-      <c r="M162" s="8">
+        <v>0</v>
+      </c>
+      <c r="N162" s="8" t="b">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N162" s="8" t="b">
-        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O162" s="33"/>
@@ -9467,7 +9467,7 @@
         <v>2</v>
       </c>
       <c r="F163" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I163">
@@ -9475,15 +9475,15 @@
         <v>10</v>
       </c>
       <c r="L163" s="4">
+        <f t="shared" si="48"/>
+        <v>10</v>
+      </c>
+      <c r="M163" s="8">
         <f t="shared" si="49"/>
-        <v>10</v>
-      </c>
-      <c r="M163" s="8">
+        <v>0</v>
+      </c>
+      <c r="N163" s="8" t="b">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N163" s="8" t="b">
-        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O163" s="33"/>
@@ -9501,19 +9501,19 @@
         <v>-2</v>
       </c>
       <c r="F164" s="10">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L164" s="4">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L164" s="4">
+      <c r="M164" s="8">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M164" s="8">
+      <c r="N164" s="8" t="b">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="N164" s="8" t="b">
-        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="O164" s="33"/>
@@ -9588,7 +9588,7 @@
         <v>2</v>
       </c>
       <c r="F168" s="11">
-        <f t="shared" ref="F168:F173" si="52">SUM(B168:E168)</f>
+        <f t="shared" ref="F168:F173" si="51">SUM(B168:E168)</f>
         <v>2</v>
       </c>
       <c r="H168">
@@ -9597,15 +9597,15 @@
       </c>
       <c r="I168" s="8"/>
       <c r="L168" s="4">
-        <f t="shared" ref="L168:L173" si="53">SUM(G168:K168)</f>
+        <f t="shared" ref="L168:L173" si="52">SUM(G168:K168)</f>
         <v>2</v>
       </c>
       <c r="M168" s="8">
-        <f t="shared" ref="M168:M173" si="54">L168-F168</f>
+        <f t="shared" ref="M168:M173" si="53">L168-F168</f>
         <v>0</v>
       </c>
       <c r="N168" s="8" t="b">
-        <f t="shared" ref="N168:N173" si="55">IF(ABS(M168)&lt;1,TRUE,FALSE)</f>
+        <f t="shared" ref="N168:N173" si="54">IF(ABS(M168)&lt;1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O168" s="33"/>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="C169" s="8"/>
       <c r="F169" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="G169">
@@ -9629,15 +9629,15 @@
       </c>
       <c r="I169" s="8"/>
       <c r="L169" s="4">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="M169" s="8">
         <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="M169" s="8">
+        <v>0</v>
+      </c>
+      <c r="N169" s="8" t="b">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N169" s="8" t="b">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O169" s="33"/>
@@ -9648,20 +9648,20 @@
       </c>
       <c r="C170" s="8"/>
       <c r="F170" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I170" s="8"/>
       <c r="L170" s="4">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="M170" s="8">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="M170" s="8">
+      <c r="N170" s="8" t="b">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N170" s="8" t="b">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O170" s="33"/>
@@ -9679,7 +9679,7 @@
         <v>6</v>
       </c>
       <c r="F171" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="G171">
@@ -9695,15 +9695,15 @@
         <v>3</v>
       </c>
       <c r="L171" s="4">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="M171" s="8">
         <f t="shared" si="53"/>
-        <v>9</v>
-      </c>
-      <c r="M171" s="8">
+        <v>0</v>
+      </c>
+      <c r="N171" s="8" t="b">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N171" s="8" t="b">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O171" s="33"/>
@@ -9721,7 +9721,7 @@
         <v>2</v>
       </c>
       <c r="F172" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>6</v>
       </c>
       <c r="I172">
@@ -9729,15 +9729,15 @@
         <v>6</v>
       </c>
       <c r="L172" s="4">
+        <f t="shared" si="52"/>
+        <v>6</v>
+      </c>
+      <c r="M172" s="8">
         <f t="shared" si="53"/>
-        <v>6</v>
-      </c>
-      <c r="M172" s="8">
+        <v>0</v>
+      </c>
+      <c r="N172" s="8" t="b">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N172" s="8" t="b">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O172" s="33"/>
@@ -9755,7 +9755,7 @@
         <v>-2</v>
       </c>
       <c r="F173" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="G173">
@@ -9763,15 +9763,15 @@
         <v>-1</v>
       </c>
       <c r="L173" s="4">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="M173" s="8">
         <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="M173" s="8">
+        <v>0</v>
+      </c>
+      <c r="N173" s="8" t="b">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N173" s="8" t="b">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O173" s="33"/>
